--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -16627,7 +16627,7 @@
         <v>2.87</v>
       </c>
       <c r="AU74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV74" t="n">
         <v>3</v>
@@ -16639,7 +16639,7 @@
         <v>5</v>
       </c>
       <c r="AY74" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ74" t="n">
         <v>8</v>
@@ -17570,7 +17570,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>8149496</v>
+        <v>8149494</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -17583,19 +17583,19 @@
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45961.60416666666</v>
+        <v>45961.625</v>
       </c>
       <c r="F79" t="n">
         <v>11</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Siwelele</t>
+          <t>Durban City</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sekhukhune United</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -17608,50 +17608,50 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
         <v>1</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>['74']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['88']</t>
         </is>
       </c>
       <c r="Q79" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V79" t="n">
         <v>4</v>
       </c>
-      <c r="R79" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S79" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="T79" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U79" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V79" t="n">
-        <v>4.35</v>
-      </c>
       <c r="W79" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X79" t="n">
-        <v>10</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="Z79" t="n">
         <v>3.05</v>
@@ -17660,127 +17660,127 @@
         <v>2.65</v>
       </c>
       <c r="AB79" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AC79" t="n">
         <v>1.14</v>
       </c>
       <c r="AD79" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AE79" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AF79" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AG79" t="n">
-        <v>3.62</v>
+        <v>3.15</v>
       </c>
       <c r="AH79" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AI79" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN79" t="n">
         <v>2.5</v>
       </c>
-      <c r="AJ79" t="n">
+      <c r="AO79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BG79" t="n">
         <v>1.44</v>
       </c>
-      <c r="AK79" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD79" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="BE79" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BF79" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="BG79" t="n">
-        <v>1.57</v>
-      </c>
       <c r="BH79" t="n">
-        <v>2.24</v>
+        <v>2.51</v>
       </c>
       <c r="BI79" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BJ79" t="n">
         <v>1.91</v>
       </c>
-      <c r="BJ79" t="n">
-        <v>1.8</v>
-      </c>
       <c r="BK79" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="BL79" t="n">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="BM79" t="n">
-        <v>3.58</v>
+        <v>2.75</v>
       </c>
       <c r="BN79" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="BO79" t="n">
-        <v>5.59</v>
+        <v>3.65</v>
       </c>
       <c r="BP79" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="80">
@@ -17788,7 +17788,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>8149494</v>
+        <v>8149496</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -17801,19 +17801,19 @@
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45961.60416666666</v>
+        <v>45961.64583333334</v>
       </c>
       <c r="F80" t="n">
         <v>11</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Durban City</t>
+          <t>Siwelele</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>Sekhukhune United</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -17826,50 +17826,50 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>1</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>['88']</t>
-        </is>
-      </c>
       <c r="Q80" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="R80" t="n">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="S80" t="n">
-        <v>3.3</v>
+        <v>3.54</v>
       </c>
       <c r="T80" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U80" t="n">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="V80" t="n">
-        <v>4</v>
+        <v>4.35</v>
       </c>
       <c r="W80" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X80" t="n">
-        <v>9.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="Z80" t="n">
         <v>3.05</v>
@@ -17878,127 +17878,127 @@
         <v>2.65</v>
       </c>
       <c r="AB80" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AC80" t="n">
         <v>1.14</v>
       </c>
       <c r="AD80" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AE80" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AF80" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AG80" t="n">
-        <v>3.15</v>
+        <v>3.62</v>
       </c>
       <c r="AH80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR80" t="n">
         <v>1.33</v>
       </c>
-      <c r="AI80" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO80" t="n">
+      <c r="AS80" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU80" t="n">
         <v>3</v>
       </c>
-      <c r="AP80" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>0</v>
-      </c>
       <c r="AV80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW80" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX80" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY80" t="n">
         <v>9</v>
       </c>
       <c r="AZ80" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC80" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD80" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="BE80" t="n">
-        <v>5.95</v>
+        <v>6.5</v>
       </c>
       <c r="BF80" t="n">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="BG80" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="BH80" t="n">
-        <v>2.51</v>
+        <v>2.24</v>
       </c>
       <c r="BI80" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="BJ80" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="BK80" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="BL80" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="BM80" t="n">
-        <v>2.75</v>
+        <v>3.58</v>
       </c>
       <c r="BN80" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="BO80" t="n">
-        <v>3.65</v>
+        <v>5.59</v>
       </c>
       <c r="BP80" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="81">
@@ -18380,13 +18380,13 @@
         <v>3</v>
       </c>
       <c r="AX82" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY82" t="n">
         <v>8</v>
       </c>
       <c r="AZ82" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA82" t="n">
         <v>2</v>
@@ -19673,10 +19673,10 @@
         <v>0.97</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="AU88" t="n">
         <v>1</v>
@@ -20760,13 +20760,13 @@
         <v>0.63</v>
       </c>
       <c r="AR93" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AS93" t="n">
         <v>1.26</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="AU93" t="n">
         <v>7</v>
@@ -21644,7 +21644,7 @@
         <v>3</v>
       </c>
       <c r="AV97" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW97" t="n">
         <v>8</v>
@@ -21656,7 +21656,7 @@
         <v>11</v>
       </c>
       <c r="AZ97" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA97" t="n">
         <v>2</v>
@@ -22295,7 +22295,7 @@
         <v>2.35</v>
       </c>
       <c r="AU100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV100" t="n">
         <v>7</v>
@@ -22307,7 +22307,7 @@
         <v>10</v>
       </c>
       <c r="AY100" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ100" t="n">
         <v>17</v>
@@ -22722,13 +22722,13 @@
         <v>2.17</v>
       </c>
       <c r="AR102" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AS102" t="n">
         <v>1.6</v>
       </c>
       <c r="AT102" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="AU102" t="n">
         <v>1</v>
@@ -22958,22 +22958,22 @@
         <v>6</v>
       </c>
       <c r="AX103" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY103" t="n">
         <v>7</v>
       </c>
       <c r="AZ103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA103" t="n">
         <v>10</v>
-      </c>
-      <c r="BA103" t="n">
-        <v>9</v>
       </c>
       <c r="BB103" t="n">
         <v>5</v>
       </c>
       <c r="BC103" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD103" t="n">
         <v>1.4</v>
@@ -23176,13 +23176,13 @@
         <v>8</v>
       </c>
       <c r="AX104" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY104" t="n">
         <v>10</v>
       </c>
       <c r="AZ104" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA104" t="n">
         <v>5</v>
@@ -23379,10 +23379,10 @@
         <v>1.32</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="AU105" t="n">
         <v>6</v>
@@ -23821,7 +23821,7 @@
         <v>2.49</v>
       </c>
       <c r="AU107" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV107" t="n">
         <v>2</v>
@@ -23830,22 +23830,22 @@
         <v>9</v>
       </c>
       <c r="AX107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY107" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ107" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA107" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB107" t="n">
         <v>3</v>
       </c>
       <c r="BC107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD107" t="n">
         <v>1.62</v>
@@ -24248,13 +24248,13 @@
         <v>1.86</v>
       </c>
       <c r="AR109" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AS109" t="n">
         <v>1.33</v>
       </c>
       <c r="AT109" t="n">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="AU109" t="n">
         <v>4</v>
@@ -24381,7 +24381,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>['45', '55', '90+3']</t>
+          <t>['44', '55', '90+3']</t>
         </is>
       </c>
       <c r="Q110" t="n">
@@ -24466,13 +24466,13 @@
         <v>1.13</v>
       </c>
       <c r="AR110" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AS110" t="n">
         <v>1.11</v>
       </c>
       <c r="AT110" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AU110" t="n">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -19532,7 +19532,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>8149509</v>
+        <v>8149510</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -19552,31 +19552,31 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Chippa United</t>
+          <t>AmaZulu</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Magesi</t>
+          <t>Polokwane City</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -19585,29 +19585,29 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['15']</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>3.7</v>
+        <v>3.09</v>
       </c>
       <c r="R88" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="S88" t="n">
-        <v>3.65</v>
+        <v>4.33</v>
       </c>
       <c r="T88" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U88" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="V88" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="W88" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X88" t="n">
         <v>15</v>
@@ -19616,133 +19616,133 @@
         <v>1.03</v>
       </c>
       <c r="Z88" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="AA88" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="AB88" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="AC88" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AD88" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="AE88" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AF88" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AG88" t="n">
-        <v>3.08</v>
+        <v>3.11</v>
       </c>
       <c r="AH88" t="n">
         <v>1.3</v>
       </c>
       <c r="AI88" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="AJ88" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AK88" t="n">
         <v>1.44</v>
       </c>
       <c r="AL88" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="AM88" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AN88" t="n">
-        <v>0.83</v>
+        <v>3</v>
       </c>
       <c r="AO88" t="n">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.88</v>
+        <v>2.5</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.38</v>
+        <v>1.43</v>
       </c>
       <c r="AR88" t="n">
-        <v>0.97</v>
+        <v>1.23</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="AU88" t="n">
         <v>1</v>
       </c>
       <c r="AV88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA88" t="n">
         <v>5</v>
-      </c>
-      <c r="AX88" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY88" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ88" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA88" t="n">
-        <v>3</v>
       </c>
       <c r="BB88" t="n">
         <v>4</v>
       </c>
       <c r="BC88" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD88" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="BE88" t="n">
-        <v>6.8</v>
+        <v>7.03</v>
       </c>
       <c r="BF88" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="BG88" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="BH88" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="BI88" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="BJ88" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="BK88" t="n">
-        <v>2.28</v>
+        <v>1.91</v>
       </c>
       <c r="BL88" t="n">
-        <v>1.51</v>
+        <v>1.76</v>
       </c>
       <c r="BM88" t="n">
-        <v>3.08</v>
+        <v>2.46</v>
       </c>
       <c r="BN88" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="BO88" t="n">
-        <v>4.5</v>
+        <v>3.34</v>
       </c>
       <c r="BP88" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="89">
@@ -19968,7 +19968,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>8149510</v>
+        <v>8149509</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -19988,31 +19988,31 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>AmaZulu</t>
+          <t>Chippa United</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Polokwane City</t>
+          <t>Magesi</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -20021,29 +20021,29 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>['15']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>3.09</v>
+        <v>3.7</v>
       </c>
       <c r="R90" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="S90" t="n">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="T90" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U90" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="V90" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="W90" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X90" t="n">
         <v>15</v>
@@ -20052,133 +20052,133 @@
         <v>1.03</v>
       </c>
       <c r="Z90" t="n">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="AA90" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="AB90" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="AC90" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AD90" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="AE90" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AF90" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AG90" t="n">
-        <v>3.11</v>
+        <v>3.08</v>
       </c>
       <c r="AH90" t="n">
         <v>1.3</v>
       </c>
       <c r="AI90" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="AJ90" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AK90" t="n">
         <v>1.44</v>
       </c>
       <c r="AL90" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="AM90" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AN90" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA90" t="n">
         <v>3</v>
-      </c>
-      <c r="AO90" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AP90" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AQ90" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AR90" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AS90" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AT90" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AU90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV90" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW90" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX90" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY90" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ90" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA90" t="n">
-        <v>5</v>
       </c>
       <c r="BB90" t="n">
         <v>4</v>
       </c>
       <c r="BC90" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD90" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="BE90" t="n">
-        <v>7.03</v>
+        <v>6.8</v>
       </c>
       <c r="BF90" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="BG90" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="BH90" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="BI90" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="BJ90" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="BK90" t="n">
-        <v>1.91</v>
+        <v>2.28</v>
       </c>
       <c r="BL90" t="n">
-        <v>1.76</v>
+        <v>1.51</v>
       </c>
       <c r="BM90" t="n">
-        <v>2.46</v>
+        <v>3.08</v>
       </c>
       <c r="BN90" t="n">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="BO90" t="n">
-        <v>3.34</v>
+        <v>4.5</v>
       </c>
       <c r="BP90" t="n">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="91">
@@ -20186,7 +20186,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>8149517</v>
+        <v>8149515</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -20206,197 +20206,197 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Golden Arrows</t>
+          <t>Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Orlando Pirates</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
       <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S91" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V91" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X91" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV91" t="n">
         <v>3</v>
       </c>
-      <c r="N91" t="n">
-        <v>4</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>['72']</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>['23', '73', '87']</t>
-        </is>
-      </c>
-      <c r="Q91" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="R91" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="S91" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="T91" t="n">
+      <c r="AW91" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BG91" t="n">
         <v>1.5</v>
       </c>
-      <c r="U91" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V91" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W91" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X91" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AA91" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB91" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AL91" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AM91" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AN91" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO91" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AP91" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AQ91" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AR91" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AS91" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AT91" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU91" t="n">
+      <c r="BH91" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BI91" t="n">
         <v>2</v>
       </c>
-      <c r="AV91" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW91" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX91" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY91" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ91" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA91" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB91" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC91" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD91" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="BE91" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="BF91" t="n">
+      <c r="BJ91" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN91" t="n">
         <v>1.34</v>
       </c>
-      <c r="BG91" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="BH91" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="BI91" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BJ91" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BK91" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="BL91" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="BM91" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="BN91" t="n">
-        <v>1.23</v>
-      </c>
       <c r="BO91" t="n">
-        <v>4.57</v>
+        <v>4.97</v>
       </c>
       <c r="BP91" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="92">
@@ -20404,7 +20404,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>8149515</v>
+        <v>8149514</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -20424,12 +20424,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns</t>
+          <t>Durban City</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Marumo Gallants</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -20452,7 +20452,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>['61']</t>
+          <t>['79']</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -20461,160 +20461,160 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="R92" t="n">
-        <v>2.17</v>
+        <v>1.83</v>
       </c>
       <c r="S92" t="n">
-        <v>8.1</v>
+        <v>4.5</v>
       </c>
       <c r="T92" t="n">
-        <v>1.37</v>
+        <v>1.65</v>
       </c>
       <c r="U92" t="n">
-        <v>2.83</v>
+        <v>2.15</v>
       </c>
       <c r="V92" t="n">
-        <v>2.8</v>
+        <v>4.35</v>
       </c>
       <c r="W92" t="n">
-        <v>1.37</v>
+        <v>1.14</v>
       </c>
       <c r="X92" t="n">
-        <v>6.4</v>
+        <v>15</v>
       </c>
       <c r="Y92" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="Z92" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS92" t="n">
         <v>1.26</v>
       </c>
-      <c r="AA92" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AM92" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AN92" t="n">
+      <c r="AT92" t="n">
         <v>2.6</v>
-      </c>
-      <c r="AO92" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AP92" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AQ92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR92" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AS92" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AT92" t="n">
-        <v>3.14</v>
       </c>
       <c r="AU92" t="n">
         <v>7</v>
       </c>
       <c r="AV92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW92" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX92" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB92" t="n">
         <v>5</v>
       </c>
-      <c r="AY92" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ92" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA92" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB92" t="n">
+      <c r="BC92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE92" t="n">
         <v>7</v>
       </c>
-      <c r="BC92" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD92" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="BE92" t="n">
-        <v>8</v>
-      </c>
       <c r="BF92" t="n">
-        <v>8.1</v>
+        <v>2.85</v>
       </c>
       <c r="BG92" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="BH92" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="BI92" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="BJ92" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="BK92" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="BL92" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="BM92" t="n">
-        <v>2.9</v>
+        <v>3.62</v>
       </c>
       <c r="BN92" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="BO92" t="n">
-        <v>4.97</v>
+        <v>5.49</v>
       </c>
       <c r="BP92" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="93">
@@ -20622,7 +20622,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>8149514</v>
+        <v>8149517</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -20642,197 +20642,197 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Durban City</t>
+          <t>Golden Arrows</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Marumo Gallants</t>
+          <t>Orlando Pirates</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>['79']</t>
+          <t>['72']</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['23', '73', '87']</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>2.7</v>
+        <v>6.8</v>
       </c>
       <c r="R93" t="n">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="S93" t="n">
-        <v>4.5</v>
+        <v>2.35</v>
       </c>
       <c r="T93" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="U93" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="V93" t="n">
-        <v>4.35</v>
+        <v>3.3</v>
       </c>
       <c r="W93" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="X93" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z93" t="n">
-        <v>1.93</v>
+        <v>5.5</v>
       </c>
       <c r="AA93" t="n">
-        <v>2.86</v>
+        <v>3.4</v>
       </c>
       <c r="AB93" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="AC93" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AD93" t="n">
-        <v>5.15</v>
+        <v>6.87</v>
       </c>
       <c r="AE93" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="AF93" t="n">
-        <v>2.03</v>
+        <v>2.52</v>
       </c>
       <c r="AG93" t="n">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="AH93" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="AI93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AN93" t="n">
         <v>2.5</v>
       </c>
-      <c r="AJ93" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AK93" t="n">
+      <c r="AO93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BG93" t="n">
         <v>1.45</v>
       </c>
-      <c r="AL93" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO93" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AP93" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AQ93" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AR93" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AS93" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AT93" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU93" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV93" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW93" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX93" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY93" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ93" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA93" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB93" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC93" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD93" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="BE93" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF93" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="BG93" t="n">
-        <v>1.56</v>
-      </c>
       <c r="BH93" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="BI93" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="BJ93" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="BK93" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="BL93" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="BM93" t="n">
-        <v>3.62</v>
+        <v>3.42</v>
       </c>
       <c r="BN93" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="BO93" t="n">
-        <v>5.49</v>
+        <v>4.57</v>
       </c>
       <c r="BP93" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="94">
@@ -22802,7 +22802,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>8149538</v>
+        <v>8149535</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -22822,12 +22822,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Siwelele</t>
+          <t>Polokwane City</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Chippa United</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -22859,160 +22859,160 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>2.78</v>
+        <v>3.53</v>
       </c>
       <c r="R103" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S103" t="n">
-        <v>5.5</v>
+        <v>4.39</v>
       </c>
       <c r="T103" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U103" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="V103" t="n">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="W103" t="n">
         <v>1.16</v>
       </c>
       <c r="X103" t="n">
-        <v>17</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y103" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="Z103" t="n">
-        <v>1.9</v>
+        <v>2.45</v>
       </c>
       <c r="AA103" t="n">
         <v>2.7</v>
       </c>
       <c r="AB103" t="n">
-        <v>5.17</v>
+        <v>3.42</v>
       </c>
       <c r="AC103" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AD103" t="n">
-        <v>4.65</v>
+        <v>5.24</v>
       </c>
       <c r="AE103" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="AF103" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="AG103" t="n">
-        <v>3.14</v>
+        <v>3.04</v>
       </c>
       <c r="AH103" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AI103" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="AJ103" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AK103" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AL103" t="n">
         <v>1.4</v>
       </c>
       <c r="AM103" t="n">
-        <v>1.83</v>
+        <v>1.41</v>
       </c>
       <c r="AN103" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO103" t="n">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="AR103" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.96</v>
+        <v>1.24</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.26</v>
+        <v>2.81</v>
       </c>
       <c r="AU103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX103" t="n">
         <v>6</v>
       </c>
-      <c r="AX103" t="n">
-        <v>9</v>
-      </c>
       <c r="AY103" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ103" t="n">
         <v>7</v>
       </c>
-      <c r="AZ103" t="n">
-        <v>9</v>
-      </c>
       <c r="BA103" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BB103" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC103" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BD103" t="n">
-        <v>1.4</v>
+        <v>1.81</v>
       </c>
       <c r="BE103" t="n">
-        <v>8.1</v>
+        <v>7.21</v>
       </c>
       <c r="BF103" t="n">
-        <v>3.28</v>
+        <v>2.12</v>
       </c>
       <c r="BG103" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="BH103" t="n">
-        <v>2.56</v>
+        <v>3.1</v>
       </c>
       <c r="BI103" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL103" t="n">
         <v>1.77</v>
       </c>
-      <c r="BJ103" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="BK103" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="BL103" t="n">
-        <v>1.56</v>
-      </c>
       <c r="BM103" t="n">
-        <v>3.02</v>
+        <v>2.49</v>
       </c>
       <c r="BN103" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="BO103" t="n">
-        <v>4.38</v>
+        <v>3.4</v>
       </c>
       <c r="BP103" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="104">
@@ -23020,7 +23020,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>8149535</v>
+        <v>8149538</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -23040,12 +23040,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Polokwane City</t>
+          <t>Siwelele</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Chippa United</t>
         </is>
       </c>
       <c r="I104" t="n">
@@ -23077,160 +23077,160 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>3.53</v>
+        <v>2.78</v>
       </c>
       <c r="R104" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="S104" t="n">
-        <v>4.39</v>
+        <v>5.5</v>
       </c>
       <c r="T104" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U104" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="V104" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="W104" t="n">
         <v>1.16</v>
       </c>
       <c r="X104" t="n">
-        <v>9.300000000000001</v>
+        <v>17</v>
       </c>
       <c r="Y104" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="Z104" t="n">
-        <v>2.45</v>
+        <v>1.9</v>
       </c>
       <c r="AA104" t="n">
         <v>2.7</v>
       </c>
       <c r="AB104" t="n">
-        <v>3.42</v>
+        <v>5.17</v>
       </c>
       <c r="AC104" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="AD104" t="n">
-        <v>5.24</v>
+        <v>4.65</v>
       </c>
       <c r="AE104" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="AF104" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AG104" t="n">
-        <v>3.04</v>
+        <v>3.14</v>
       </c>
       <c r="AH104" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AI104" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="AJ104" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AK104" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="AL104" t="n">
         <v>1.4</v>
       </c>
       <c r="AM104" t="n">
-        <v>1.41</v>
+        <v>1.83</v>
       </c>
       <c r="AN104" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO104" t="n">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="AR104" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.24</v>
+        <v>0.96</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.81</v>
+        <v>2.26</v>
       </c>
       <c r="AU104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW104" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX104" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY104" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA104" t="n">
         <v>10</v>
       </c>
-      <c r="AZ104" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA104" t="n">
+      <c r="BB104" t="n">
         <v>5</v>
       </c>
-      <c r="BB104" t="n">
-        <v>3</v>
-      </c>
       <c r="BC104" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BD104" t="n">
-        <v>1.81</v>
+        <v>1.4</v>
       </c>
       <c r="BE104" t="n">
-        <v>7.21</v>
+        <v>8.1</v>
       </c>
       <c r="BF104" t="n">
-        <v>2.12</v>
+        <v>3.28</v>
       </c>
       <c r="BG104" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="BH104" t="n">
-        <v>3.1</v>
+        <v>2.56</v>
       </c>
       <c r="BI104" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BL104" t="n">
         <v>1.56</v>
       </c>
-      <c r="BJ104" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BK104" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="BL104" t="n">
-        <v>1.77</v>
-      </c>
       <c r="BM104" t="n">
-        <v>2.49</v>
+        <v>3.02</v>
       </c>
       <c r="BN104" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="BO104" t="n">
-        <v>3.4</v>
+        <v>4.38</v>
       </c>
       <c r="BP104" t="n">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="105">
@@ -23674,7 +23674,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>8149557</v>
+        <v>8149558</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -23694,197 +23694,197 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Chippa United</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Polokwane City</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S107" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X107" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO107" t="n">
         <v>3</v>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>['59']</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>['39', '45+1']</t>
-        </is>
-      </c>
-      <c r="Q107" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R107" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S107" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="T107" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U107" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V107" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="W107" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X107" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y107" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Z107" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AA107" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AM107" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO107" t="n">
-        <v>1.17</v>
       </c>
       <c r="AP107" t="n">
         <v>0.88</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.43</v>
+        <v>2.2</v>
       </c>
       <c r="AR107" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BP107" t="n">
         <v>1.24</v>
-      </c>
-      <c r="AS107" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AT107" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AU107" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV107" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW107" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX107" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY107" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ107" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA107" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB107" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC107" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD107" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="BE107" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="BF107" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="BG107" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BH107" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="BI107" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BJ107" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="BK107" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="BL107" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BM107" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="BN107" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BO107" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="BP107" t="n">
-        <v>1.17</v>
       </c>
     </row>
     <row r="108">
@@ -23892,7 +23892,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>8149548</v>
+        <v>8149554</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -23912,197 +23912,197 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Siwelele</t>
+          <t>Orbit College</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns</t>
+          <t>Durban City</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
         <v>1</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>['74']</t>
+          <t>['44', '55', '90+3']</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>8.09</v>
+        <v>4.5</v>
       </c>
       <c r="R108" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="S108" t="n">
-        <v>2.27</v>
+        <v>2.97</v>
       </c>
       <c r="T108" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V108" t="n">
+        <v>4</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X108" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BL108" t="n">
         <v>1.49</v>
       </c>
-      <c r="U108" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V108" t="n">
+      <c r="BM108" t="n">
         <v>3.3</v>
       </c>
-      <c r="W108" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="X108" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y108" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z108" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AA108" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AB108" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AC108" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD108" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AH108" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI108" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AK108" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AL108" t="n">
+      <c r="BN108" t="n">
         <v>1.25</v>
       </c>
-      <c r="AM108" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AN108" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AO108" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AP108" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ108" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AR108" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AS108" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AT108" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU108" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV108" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW108" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX108" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ108" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA108" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB108" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC108" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD108" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="BE108" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BF108" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="BG108" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="BH108" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="BI108" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="BJ108" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BK108" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="BL108" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BM108" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BN108" t="n">
-        <v>1.22</v>
-      </c>
       <c r="BO108" t="n">
-        <v>4.8</v>
+        <v>4.88</v>
       </c>
       <c r="BP108" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="109">
@@ -24110,7 +24110,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>8149555</v>
+        <v>8149548</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -24130,197 +24130,197 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Magesi</t>
+          <t>Siwelele</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Sekhukhune United</t>
+          <t>Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
         <v>1</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
       <c r="N109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['27']</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['74']</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>3.85</v>
+        <v>8.09</v>
       </c>
       <c r="R109" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="S109" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V109" t="n">
         <v>3.3</v>
       </c>
-      <c r="T109" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U109" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="V109" t="n">
-        <v>3.94</v>
-      </c>
       <c r="W109" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="X109" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="Y109" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z109" t="n">
-        <v>2.98</v>
+        <v>5.7</v>
       </c>
       <c r="AA109" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AB109" t="n">
-        <v>2.55</v>
+        <v>1.56</v>
       </c>
       <c r="AC109" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AD109" t="n">
-        <v>5.47</v>
+        <v>6.75</v>
       </c>
       <c r="AE109" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AN109" t="n">
         <v>1.57</v>
       </c>
-      <c r="AF109" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AG109" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AH109" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI109" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AJ109" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AK109" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AL109" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AM109" t="n">
+      <c r="AO109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR109" t="n">
         <v>1.3</v>
       </c>
-      <c r="AN109" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AO109" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AP109" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AQ109" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AR109" t="n">
-        <v>1.65</v>
-      </c>
       <c r="AS109" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.98</v>
+        <v>2.62</v>
       </c>
       <c r="AU109" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV109" t="n">
         <v>2</v>
       </c>
       <c r="AW109" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AX109" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AY109" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AZ109" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA109" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BB109" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BC109" t="n">
         <v>9</v>
       </c>
       <c r="BD109" t="n">
-        <v>2.39</v>
+        <v>3.15</v>
       </c>
       <c r="BE109" t="n">
-        <v>6.75</v>
+        <v>7.8</v>
       </c>
       <c r="BF109" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ109" t="n">
         <v>1.68</v>
       </c>
-      <c r="BG109" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BH109" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="BI109" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BJ109" t="n">
-        <v>1.85</v>
-      </c>
       <c r="BK109" t="n">
-        <v>2.29</v>
+        <v>2.52</v>
       </c>
       <c r="BL109" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="BM109" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="BN109" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="BO109" t="n">
-        <v>4.73</v>
+        <v>4.8</v>
       </c>
       <c r="BP109" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="110">
@@ -24328,7 +24328,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>8149554</v>
+        <v>8149557</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -24348,197 +24348,197 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Orbit College</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Durban City</t>
+          <t>Polokwane City</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N110" t="n">
         <v>3</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['59']</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>['44', '55', '90+3']</t>
+          <t>['39', '45+1']</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>4.5</v>
+        <v>2.96</v>
       </c>
       <c r="R110" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="S110" t="n">
-        <v>2.97</v>
+        <v>5.48</v>
       </c>
       <c r="T110" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="U110" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="V110" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="W110" t="n">
         <v>1.17</v>
       </c>
       <c r="X110" t="n">
-        <v>9.1</v>
+        <v>15</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="Z110" t="n">
-        <v>3.73</v>
+        <v>2.1</v>
       </c>
       <c r="AA110" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="AB110" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="AC110" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AD110" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AE110" t="n">
         <v>1.7</v>
       </c>
       <c r="AF110" t="n">
-        <v>2.21</v>
+        <v>2.02</v>
       </c>
       <c r="AG110" t="n">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="AH110" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AI110" t="n">
-        <v>2.4</v>
+        <v>2.51</v>
       </c>
       <c r="AJ110" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AK110" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AL110" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AM110" t="n">
-        <v>1.2</v>
+        <v>1.59</v>
       </c>
       <c r="AN110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ110" t="n">
         <v>1.43</v>
       </c>
-      <c r="AO110" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AP110" t="n">
+      <c r="AR110" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS110" t="n">
         <v>1.25</v>
       </c>
-      <c r="AQ110" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AR110" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AS110" t="n">
-        <v>1.11</v>
-      </c>
       <c r="AT110" t="n">
-        <v>2.18</v>
+        <v>2.49</v>
       </c>
       <c r="AU110" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV110" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW110" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA110" t="n">
         <v>8</v>
-      </c>
-      <c r="AX110" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY110" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ110" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA110" t="n">
-        <v>5</v>
       </c>
       <c r="BB110" t="n">
         <v>3</v>
       </c>
       <c r="BC110" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD110" t="n">
-        <v>2.68</v>
+        <v>1.62</v>
       </c>
       <c r="BE110" t="n">
-        <v>6.87</v>
+        <v>7.24</v>
       </c>
       <c r="BF110" t="n">
-        <v>1.86</v>
+        <v>2.74</v>
       </c>
       <c r="BG110" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="BH110" t="n">
-        <v>2.4</v>
+        <v>2.78</v>
       </c>
       <c r="BI110" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="BJ110" t="n">
-        <v>1.84</v>
+        <v>2.17</v>
       </c>
       <c r="BK110" t="n">
-        <v>2.39</v>
+        <v>2.47</v>
       </c>
       <c r="BL110" t="n">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="BM110" t="n">
-        <v>3.3</v>
+        <v>2.76</v>
       </c>
       <c r="BN110" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="BO110" t="n">
-        <v>4.88</v>
+        <v>3.9</v>
       </c>
       <c r="BP110" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="111">
@@ -24546,7 +24546,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>8149558</v>
+        <v>8149555</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -24566,31 +24566,31 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Chippa United</t>
+          <t>Magesi</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>Sekhukhune United</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -24599,164 +24599,164 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>4.32</v>
+        <v>3.85</v>
       </c>
       <c r="R111" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="S111" t="n">
-        <v>2.65</v>
+        <v>3.3</v>
       </c>
       <c r="T111" t="n">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="U111" t="n">
-        <v>2.34</v>
+        <v>2.13</v>
       </c>
       <c r="V111" t="n">
-        <v>3.25</v>
+        <v>3.94</v>
       </c>
       <c r="W111" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="X111" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="Y111" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Z111" t="n">
-        <v>4.3</v>
+        <v>2.98</v>
       </c>
       <c r="AA111" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AB111" t="n">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="AC111" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AD111" t="n">
-        <v>6.4</v>
+        <v>5.47</v>
       </c>
       <c r="AE111" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AF111" t="n">
-        <v>2.83</v>
+        <v>2.17</v>
       </c>
       <c r="AG111" t="n">
-        <v>2.35</v>
+        <v>3.09</v>
       </c>
       <c r="AH111" t="n">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="AI111" t="n">
-        <v>2.05</v>
+        <v>2.28</v>
       </c>
       <c r="AJ111" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="AK111" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AL111" t="n">
         <v>1.36</v>
       </c>
       <c r="AM111" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AN111" t="n">
-        <v>0.86</v>
+        <v>1.6</v>
       </c>
       <c r="AO111" t="n">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AQ111" t="n">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="AR111" t="n">
-        <v>0.97</v>
+        <v>1.65</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.9</v>
+        <v>1.33</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.87</v>
+        <v>2.98</v>
       </c>
       <c r="AU111" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV111" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW111" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AX111" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AY111" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AZ111" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="BA111" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB111" t="n">
         <v>2</v>
       </c>
-      <c r="BB111" t="n">
-        <v>6</v>
-      </c>
       <c r="BC111" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD111" t="n">
-        <v>2.65</v>
+        <v>2.39</v>
       </c>
       <c r="BE111" t="n">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF111" t="n">
-        <v>1.49</v>
+        <v>1.68</v>
       </c>
       <c r="BG111" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="BH111" t="n">
-        <v>2.59</v>
+        <v>2.46</v>
       </c>
       <c r="BI111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ111" t="n">
         <v>1.85</v>
       </c>
-      <c r="BJ111" t="n">
-        <v>1.95</v>
-      </c>
       <c r="BK111" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="BL111" t="n">
         <v>1.54</v>
       </c>
       <c r="BM111" t="n">
-        <v>2.97</v>
+        <v>3.2</v>
       </c>
       <c r="BN111" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BO111" t="n">
-        <v>3.55</v>
+        <v>4.73</v>
       </c>
       <c r="BP111" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="112">

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -466,10 +466,10 @@
     <t>['4', '61', '73', '89']</t>
   </si>
   <si>
-    <t>['61']</t>
+    <t>['72']</t>
   </si>
   <si>
-    <t>['72']</t>
+    <t>['61']</t>
   </si>
   <si>
     <t>['45', '73']</t>
@@ -595,10 +595,10 @@
     <t>['23', '77']</t>
   </si>
   <si>
-    <t>['44', '55', '90+3']</t>
+    <t>['39', '45+1']</t>
   </si>
   <si>
-    <t>['39', '45+1']</t>
+    <t>['44', '55', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -18893,7 +18893,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>8149510</v>
+        <v>8149509</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18908,55 +18908,55 @@
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H88" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88" t="s">
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="Q88">
-        <v>3.09</v>
+        <v>3.7</v>
       </c>
       <c r="R88">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="S88">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="T88">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U88">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="V88">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="W88">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X88">
         <v>15</v>
@@ -18965,133 +18965,133 @@
         <v>1.03</v>
       </c>
       <c r="Z88">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="AA88">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="AB88">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="AC88">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AD88">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="AE88">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AF88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AG88">
-        <v>3.11</v>
+        <v>3.08</v>
       </c>
       <c r="AH88">
         <v>1.3</v>
       </c>
       <c r="AI88">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="AJ88">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AK88">
         <v>1.44</v>
       </c>
       <c r="AL88">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="AM88">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AN88">
+        <v>0.83</v>
+      </c>
+      <c r="AO88">
+        <v>0.17</v>
+      </c>
+      <c r="AP88">
+        <v>0.88</v>
+      </c>
+      <c r="AQ88">
+        <v>0.38</v>
+      </c>
+      <c r="AR88">
+        <v>0.97</v>
+      </c>
+      <c r="AS88">
+        <v>1.21</v>
+      </c>
+      <c r="AT88">
+        <v>2.18</v>
+      </c>
+      <c r="AU88">
+        <v>1</v>
+      </c>
+      <c r="AV88">
+        <v>1</v>
+      </c>
+      <c r="AW88">
+        <v>5</v>
+      </c>
+      <c r="AX88">
+        <v>10</v>
+      </c>
+      <c r="AY88">
+        <v>6</v>
+      </c>
+      <c r="AZ88">
+        <v>11</v>
+      </c>
+      <c r="BA88">
         <v>3</v>
-      </c>
-      <c r="AO88">
-        <v>0.8</v>
-      </c>
-      <c r="AP88">
-        <v>2.5</v>
-      </c>
-      <c r="AQ88">
-        <v>1.43</v>
-      </c>
-      <c r="AR88">
-        <v>1.23</v>
-      </c>
-      <c r="AS88">
-        <v>1.23</v>
-      </c>
-      <c r="AT88">
-        <v>2.46</v>
-      </c>
-      <c r="AU88">
-        <v>1</v>
-      </c>
-      <c r="AV88">
-        <v>4</v>
-      </c>
-      <c r="AW88">
-        <v>2</v>
-      </c>
-      <c r="AX88">
-        <v>8</v>
-      </c>
-      <c r="AY88">
-        <v>3</v>
-      </c>
-      <c r="AZ88">
-        <v>12</v>
-      </c>
-      <c r="BA88">
-        <v>5</v>
       </c>
       <c r="BB88">
         <v>4</v>
       </c>
       <c r="BC88">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD88">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="BE88">
-        <v>7.03</v>
+        <v>6.8</v>
       </c>
       <c r="BF88">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="BG88">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="BH88">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="BI88">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="BJ88">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="BK88">
-        <v>1.91</v>
+        <v>2.28</v>
       </c>
       <c r="BL88">
-        <v>1.76</v>
+        <v>1.51</v>
       </c>
       <c r="BM88">
-        <v>2.46</v>
+        <v>3.08</v>
       </c>
       <c r="BN88">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="BO88">
-        <v>3.34</v>
+        <v>4.5</v>
       </c>
       <c r="BP88">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19305,7 +19305,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>8149509</v>
+        <v>8149510</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -19320,55 +19320,55 @@
         <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H90" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="s">
         <v>87</v>
       </c>
       <c r="P90" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="Q90">
-        <v>3.7</v>
+        <v>3.09</v>
       </c>
       <c r="R90">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="S90">
-        <v>3.65</v>
+        <v>4.33</v>
       </c>
       <c r="T90">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U90">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="V90">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="W90">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X90">
         <v>15</v>
@@ -19377,133 +19377,133 @@
         <v>1.03</v>
       </c>
       <c r="Z90">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="AA90">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="AB90">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="AC90">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AD90">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="AE90">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AF90">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AG90">
-        <v>3.08</v>
+        <v>3.11</v>
       </c>
       <c r="AH90">
         <v>1.3</v>
       </c>
       <c r="AI90">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="AJ90">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AK90">
         <v>1.44</v>
       </c>
       <c r="AL90">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="AM90">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AN90">
-        <v>0.83</v>
+        <v>3</v>
       </c>
       <c r="AO90">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="AP90">
-        <v>0.88</v>
+        <v>2.5</v>
       </c>
       <c r="AQ90">
-        <v>0.38</v>
+        <v>1.43</v>
       </c>
       <c r="AR90">
-        <v>0.97</v>
+        <v>1.23</v>
       </c>
       <c r="AS90">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="AT90">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="AU90">
         <v>1</v>
       </c>
       <c r="AV90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW90">
+        <v>2</v>
+      </c>
+      <c r="AX90">
+        <v>8</v>
+      </c>
+      <c r="AY90">
+        <v>3</v>
+      </c>
+      <c r="AZ90">
+        <v>12</v>
+      </c>
+      <c r="BA90">
         <v>5</v>
-      </c>
-      <c r="AX90">
-        <v>10</v>
-      </c>
-      <c r="AY90">
-        <v>6</v>
-      </c>
-      <c r="AZ90">
-        <v>11</v>
-      </c>
-      <c r="BA90">
-        <v>3</v>
       </c>
       <c r="BB90">
         <v>4</v>
       </c>
       <c r="BC90">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD90">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="BE90">
-        <v>6.8</v>
+        <v>7.03</v>
       </c>
       <c r="BF90">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="BG90">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="BH90">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="BI90">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="BJ90">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="BK90">
-        <v>2.28</v>
+        <v>1.91</v>
       </c>
       <c r="BL90">
-        <v>1.51</v>
+        <v>1.76</v>
       </c>
       <c r="BM90">
-        <v>3.08</v>
+        <v>2.46</v>
       </c>
       <c r="BN90">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="BO90">
-        <v>4.5</v>
+        <v>3.34</v>
       </c>
       <c r="BP90">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="91" spans="1:68">
@@ -19511,7 +19511,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>8149515</v>
+        <v>8149517</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19526,190 +19526,190 @@
         <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H91" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91">
         <v>1</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O91" t="s">
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="Q91">
-        <v>1.8</v>
+        <v>6.8</v>
       </c>
       <c r="R91">
+        <v>1.99</v>
+      </c>
+      <c r="S91">
+        <v>2.35</v>
+      </c>
+      <c r="T91">
+        <v>1.5</v>
+      </c>
+      <c r="U91">
+        <v>2.4</v>
+      </c>
+      <c r="V91">
+        <v>3.3</v>
+      </c>
+      <c r="W91">
+        <v>1.25</v>
+      </c>
+      <c r="X91">
+        <v>11</v>
+      </c>
+      <c r="Y91">
+        <v>1.05</v>
+      </c>
+      <c r="Z91">
+        <v>5.5</v>
+      </c>
+      <c r="AA91">
+        <v>3.4</v>
+      </c>
+      <c r="AB91">
+        <v>1.6</v>
+      </c>
+      <c r="AC91">
+        <v>1.05</v>
+      </c>
+      <c r="AD91">
+        <v>6.87</v>
+      </c>
+      <c r="AE91">
+        <v>1.44</v>
+      </c>
+      <c r="AF91">
+        <v>2.52</v>
+      </c>
+      <c r="AG91">
+        <v>2.3</v>
+      </c>
+      <c r="AH91">
+        <v>1.53</v>
+      </c>
+      <c r="AI91">
+        <v>3.4</v>
+      </c>
+      <c r="AJ91">
+        <v>1.55</v>
+      </c>
+      <c r="AK91">
+        <v>1.21</v>
+      </c>
+      <c r="AL91">
+        <v>1.23</v>
+      </c>
+      <c r="AM91">
+        <v>1.06</v>
+      </c>
+      <c r="AN91">
+        <v>2.5</v>
+      </c>
+      <c r="AO91">
+        <v>1.75</v>
+      </c>
+      <c r="AP91">
+        <v>1.88</v>
+      </c>
+      <c r="AQ91">
         <v>2.17</v>
       </c>
-      <c r="S91">
-        <v>8.1</v>
-      </c>
-      <c r="T91">
-        <v>1.37</v>
-      </c>
-      <c r="U91">
-        <v>2.83</v>
-      </c>
-      <c r="V91">
-        <v>2.8</v>
-      </c>
-      <c r="W91">
-        <v>1.37</v>
-      </c>
-      <c r="X91">
-        <v>6.4</v>
-      </c>
-      <c r="Y91">
-        <v>1.07</v>
-      </c>
-      <c r="Z91">
-        <v>1.26</v>
-      </c>
-      <c r="AA91">
-        <v>4.5</v>
-      </c>
-      <c r="AB91">
-        <v>11</v>
-      </c>
-      <c r="AC91">
-        <v>1.01</v>
-      </c>
-      <c r="AD91">
-        <v>8.6</v>
-      </c>
-      <c r="AE91">
-        <v>1.29</v>
-      </c>
-      <c r="AF91">
-        <v>3.1</v>
-      </c>
-      <c r="AG91">
-        <v>2.1</v>
-      </c>
-      <c r="AH91">
-        <v>1.71</v>
-      </c>
-      <c r="AI91">
-        <v>2.63</v>
-      </c>
-      <c r="AJ91">
+      <c r="AR91">
+        <v>1.22</v>
+      </c>
+      <c r="AS91">
+        <v>1.6</v>
+      </c>
+      <c r="AT91">
+        <v>2.82</v>
+      </c>
+      <c r="AU91">
+        <v>2</v>
+      </c>
+      <c r="AV91">
+        <v>4</v>
+      </c>
+      <c r="AW91">
+        <v>2</v>
+      </c>
+      <c r="AX91">
+        <v>8</v>
+      </c>
+      <c r="AY91">
+        <v>4</v>
+      </c>
+      <c r="AZ91">
+        <v>12</v>
+      </c>
+      <c r="BA91">
+        <v>3</v>
+      </c>
+      <c r="BB91">
+        <v>1</v>
+      </c>
+      <c r="BC91">
+        <v>4</v>
+      </c>
+      <c r="BD91">
+        <v>3.92</v>
+      </c>
+      <c r="BE91">
+        <v>8.65</v>
+      </c>
+      <c r="BF91">
+        <v>1.34</v>
+      </c>
+      <c r="BG91">
+        <v>1.45</v>
+      </c>
+      <c r="BH91">
+        <v>2.38</v>
+      </c>
+      <c r="BI91">
+        <v>1.87</v>
+      </c>
+      <c r="BJ91">
+        <v>1.73</v>
+      </c>
+      <c r="BK91">
+        <v>2.56</v>
+      </c>
+      <c r="BL91">
         <v>1.44</v>
       </c>
-      <c r="AK91">
-        <v>1.05</v>
-      </c>
-      <c r="AL91">
-        <v>1.22</v>
-      </c>
-      <c r="AM91">
-        <v>3.4</v>
-      </c>
-      <c r="AN91">
-        <v>2.6</v>
-      </c>
-      <c r="AO91">
-        <v>1.17</v>
-      </c>
-      <c r="AP91">
-        <v>2.67</v>
-      </c>
-      <c r="AQ91">
-        <v>1</v>
-      </c>
-      <c r="AR91">
-        <v>1.89</v>
-      </c>
-      <c r="AS91">
-        <v>1.25</v>
-      </c>
-      <c r="AT91">
-        <v>3.14</v>
-      </c>
-      <c r="AU91">
-        <v>7</v>
-      </c>
-      <c r="AV91">
-        <v>3</v>
-      </c>
-      <c r="AW91">
-        <v>11</v>
-      </c>
-      <c r="AX91">
-        <v>5</v>
-      </c>
-      <c r="AY91">
-        <v>18</v>
-      </c>
-      <c r="AZ91">
-        <v>8</v>
-      </c>
-      <c r="BA91">
-        <v>6</v>
-      </c>
-      <c r="BB91">
-        <v>7</v>
-      </c>
-      <c r="BC91">
-        <v>13</v>
-      </c>
-      <c r="BD91">
+      <c r="BM91">
+        <v>3.42</v>
+      </c>
+      <c r="BN91">
         <v>1.23</v>
       </c>
-      <c r="BE91">
-        <v>8</v>
-      </c>
-      <c r="BF91">
-        <v>8.1</v>
-      </c>
-      <c r="BG91">
-        <v>1.5</v>
-      </c>
-      <c r="BH91">
-        <v>2.43</v>
-      </c>
-      <c r="BI91">
-        <v>2</v>
-      </c>
-      <c r="BJ91">
-        <v>1.84</v>
-      </c>
-      <c r="BK91">
-        <v>2.42</v>
-      </c>
-      <c r="BL91">
-        <v>1.47</v>
-      </c>
-      <c r="BM91">
-        <v>2.9</v>
-      </c>
-      <c r="BN91">
-        <v>1.34</v>
-      </c>
       <c r="BO91">
-        <v>4.97</v>
+        <v>4.57</v>
       </c>
       <c r="BP91">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19717,7 +19717,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>8149514</v>
+        <v>8149515</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19732,10 +19732,10 @@
         <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -19756,166 +19756,166 @@
         <v>1</v>
       </c>
       <c r="O92" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="P92" t="s">
         <v>87</v>
       </c>
       <c r="Q92">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="R92">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="S92">
+        <v>8.1</v>
+      </c>
+      <c r="T92">
+        <v>1.37</v>
+      </c>
+      <c r="U92">
+        <v>2.83</v>
+      </c>
+      <c r="V92">
+        <v>2.8</v>
+      </c>
+      <c r="W92">
+        <v>1.37</v>
+      </c>
+      <c r="X92">
+        <v>6.4</v>
+      </c>
+      <c r="Y92">
+        <v>1.07</v>
+      </c>
+      <c r="Z92">
+        <v>1.26</v>
+      </c>
+      <c r="AA92">
         <v>4.5</v>
       </c>
-      <c r="T92">
-        <v>1.65</v>
-      </c>
-      <c r="U92">
-        <v>2.15</v>
-      </c>
-      <c r="V92">
-        <v>4.35</v>
-      </c>
-      <c r="W92">
-        <v>1.14</v>
-      </c>
-      <c r="X92">
-        <v>15</v>
-      </c>
-      <c r="Y92">
-        <v>1.03</v>
-      </c>
-      <c r="Z92">
-        <v>1.93</v>
-      </c>
-      <c r="AA92">
-        <v>2.86</v>
-      </c>
       <c r="AB92">
-        <v>3.7</v>
+        <v>11</v>
       </c>
       <c r="AC92">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AD92">
-        <v>5.15</v>
+        <v>8.6</v>
       </c>
       <c r="AE92">
-        <v>1.7</v>
+        <v>1.29</v>
       </c>
       <c r="AF92">
-        <v>2.03</v>
+        <v>3.1</v>
       </c>
       <c r="AG92">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="AH92">
-        <v>1.32</v>
+        <v>1.71</v>
       </c>
       <c r="AI92">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AJ92">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AK92">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="AL92">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AM92">
-        <v>1.61</v>
+        <v>3.4</v>
       </c>
       <c r="AN92">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AO92">
-        <v>0.71</v>
+        <v>1.17</v>
       </c>
       <c r="AP92">
-        <v>1.86</v>
+        <v>2.67</v>
       </c>
       <c r="AQ92">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AR92">
-        <v>1.34</v>
+        <v>1.89</v>
       </c>
       <c r="AS92">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT92">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="AU92">
         <v>7</v>
       </c>
       <c r="AV92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW92">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX92">
+        <v>5</v>
+      </c>
+      <c r="AY92">
+        <v>18</v>
+      </c>
+      <c r="AZ92">
+        <v>8</v>
+      </c>
+      <c r="BA92">
+        <v>6</v>
+      </c>
+      <c r="BB92">
         <v>7</v>
       </c>
-      <c r="AY92">
-        <v>17</v>
-      </c>
-      <c r="AZ92">
-        <v>9</v>
-      </c>
-      <c r="BA92">
-        <v>4</v>
-      </c>
-      <c r="BB92">
-        <v>5</v>
-      </c>
       <c r="BC92">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD92">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="BE92">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF92">
-        <v>2.85</v>
+        <v>8.1</v>
       </c>
       <c r="BG92">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="BH92">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="BI92">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="BJ92">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="BK92">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="BL92">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="BM92">
-        <v>3.62</v>
+        <v>2.9</v>
       </c>
       <c r="BN92">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="BO92">
-        <v>5.49</v>
+        <v>4.97</v>
       </c>
       <c r="BP92">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -19923,7 +19923,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>8149517</v>
+        <v>8149514</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -19938,190 +19938,190 @@
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H93" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>95</v>
+      </c>
+      <c r="P93" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q93">
+        <v>2.7</v>
+      </c>
+      <c r="R93">
+        <v>1.83</v>
+      </c>
+      <c r="S93">
+        <v>4.5</v>
+      </c>
+      <c r="T93">
+        <v>1.65</v>
+      </c>
+      <c r="U93">
+        <v>2.15</v>
+      </c>
+      <c r="V93">
+        <v>4.35</v>
+      </c>
+      <c r="W93">
+        <v>1.14</v>
+      </c>
+      <c r="X93">
+        <v>15</v>
+      </c>
+      <c r="Y93">
+        <v>1.03</v>
+      </c>
+      <c r="Z93">
+        <v>1.93</v>
+      </c>
+      <c r="AA93">
+        <v>2.86</v>
+      </c>
+      <c r="AB93">
+        <v>3.7</v>
+      </c>
+      <c r="AC93">
+        <v>1.1</v>
+      </c>
+      <c r="AD93">
+        <v>5.15</v>
+      </c>
+      <c r="AE93">
+        <v>1.7</v>
+      </c>
+      <c r="AF93">
+        <v>2.03</v>
+      </c>
+      <c r="AG93">
+        <v>3.25</v>
+      </c>
+      <c r="AH93">
+        <v>1.32</v>
+      </c>
+      <c r="AI93">
+        <v>2.5</v>
+      </c>
+      <c r="AJ93">
+        <v>1.43</v>
+      </c>
+      <c r="AK93">
+        <v>1.45</v>
+      </c>
+      <c r="AL93">
+        <v>1.36</v>
+      </c>
+      <c r="AM93">
+        <v>1.61</v>
+      </c>
+      <c r="AN93">
+        <v>2</v>
+      </c>
+      <c r="AO93">
+        <v>0.71</v>
+      </c>
+      <c r="AP93">
+        <v>1.86</v>
+      </c>
+      <c r="AQ93">
+        <v>0.63</v>
+      </c>
+      <c r="AR93">
+        <v>1.34</v>
+      </c>
+      <c r="AS93">
+        <v>1.26</v>
+      </c>
+      <c r="AT93">
+        <v>2.6</v>
+      </c>
+      <c r="AU93">
+        <v>7</v>
+      </c>
+      <c r="AV93">
+        <v>2</v>
+      </c>
+      <c r="AW93">
+        <v>10</v>
+      </c>
+      <c r="AX93">
+        <v>7</v>
+      </c>
+      <c r="AY93">
+        <v>17</v>
+      </c>
+      <c r="AZ93">
+        <v>9</v>
+      </c>
+      <c r="BA93">
         <v>4</v>
       </c>
-      <c r="O93" t="s">
-        <v>151</v>
-      </c>
-      <c r="P93" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q93">
-        <v>6.8</v>
-      </c>
-      <c r="R93">
-        <v>1.99</v>
-      </c>
-      <c r="S93">
-        <v>2.35</v>
-      </c>
-      <c r="T93">
-        <v>1.5</v>
-      </c>
-      <c r="U93">
-        <v>2.4</v>
-      </c>
-      <c r="V93">
-        <v>3.3</v>
-      </c>
-      <c r="W93">
-        <v>1.25</v>
-      </c>
-      <c r="X93">
-        <v>11</v>
-      </c>
-      <c r="Y93">
-        <v>1.05</v>
-      </c>
-      <c r="Z93">
-        <v>5.5</v>
-      </c>
-      <c r="AA93">
-        <v>3.4</v>
-      </c>
-      <c r="AB93">
-        <v>1.6</v>
-      </c>
-      <c r="AC93">
-        <v>1.05</v>
-      </c>
-      <c r="AD93">
-        <v>6.87</v>
-      </c>
-      <c r="AE93">
-        <v>1.44</v>
-      </c>
-      <c r="AF93">
-        <v>2.52</v>
-      </c>
-      <c r="AG93">
-        <v>2.3</v>
-      </c>
-      <c r="AH93">
-        <v>1.53</v>
-      </c>
-      <c r="AI93">
-        <v>3.4</v>
-      </c>
-      <c r="AJ93">
-        <v>1.55</v>
-      </c>
-      <c r="AK93">
-        <v>1.21</v>
-      </c>
-      <c r="AL93">
-        <v>1.23</v>
-      </c>
-      <c r="AM93">
+      <c r="BB93">
+        <v>5</v>
+      </c>
+      <c r="BC93">
+        <v>9</v>
+      </c>
+      <c r="BD93">
+        <v>1.52</v>
+      </c>
+      <c r="BE93">
+        <v>7</v>
+      </c>
+      <c r="BF93">
+        <v>2.85</v>
+      </c>
+      <c r="BG93">
+        <v>1.56</v>
+      </c>
+      <c r="BH93">
+        <v>2.25</v>
+      </c>
+      <c r="BI93">
+        <v>1.96</v>
+      </c>
+      <c r="BJ93">
+        <v>1.89</v>
+      </c>
+      <c r="BK93">
+        <v>2.46</v>
+      </c>
+      <c r="BL93">
+        <v>1.46</v>
+      </c>
+      <c r="BM93">
+        <v>3.62</v>
+      </c>
+      <c r="BN93">
+        <v>1.2</v>
+      </c>
+      <c r="BO93">
+        <v>5.49</v>
+      </c>
+      <c r="BP93">
         <v>1.06</v>
-      </c>
-      <c r="AN93">
-        <v>2.5</v>
-      </c>
-      <c r="AO93">
-        <v>1.75</v>
-      </c>
-      <c r="AP93">
-        <v>1.88</v>
-      </c>
-      <c r="AQ93">
-        <v>2.17</v>
-      </c>
-      <c r="AR93">
-        <v>1.22</v>
-      </c>
-      <c r="AS93">
-        <v>1.6</v>
-      </c>
-      <c r="AT93">
-        <v>2.82</v>
-      </c>
-      <c r="AU93">
-        <v>2</v>
-      </c>
-      <c r="AV93">
-        <v>4</v>
-      </c>
-      <c r="AW93">
-        <v>2</v>
-      </c>
-      <c r="AX93">
-        <v>8</v>
-      </c>
-      <c r="AY93">
-        <v>4</v>
-      </c>
-      <c r="AZ93">
-        <v>12</v>
-      </c>
-      <c r="BA93">
-        <v>3</v>
-      </c>
-      <c r="BB93">
-        <v>1</v>
-      </c>
-      <c r="BC93">
-        <v>4</v>
-      </c>
-      <c r="BD93">
-        <v>3.92</v>
-      </c>
-      <c r="BE93">
-        <v>8.65</v>
-      </c>
-      <c r="BF93">
-        <v>1.34</v>
-      </c>
-      <c r="BG93">
-        <v>1.45</v>
-      </c>
-      <c r="BH93">
-        <v>2.38</v>
-      </c>
-      <c r="BI93">
-        <v>1.87</v>
-      </c>
-      <c r="BJ93">
-        <v>1.73</v>
-      </c>
-      <c r="BK93">
-        <v>2.56</v>
-      </c>
-      <c r="BL93">
-        <v>1.44</v>
-      </c>
-      <c r="BM93">
-        <v>3.42</v>
-      </c>
-      <c r="BN93">
-        <v>1.23</v>
-      </c>
-      <c r="BO93">
-        <v>4.57</v>
-      </c>
-      <c r="BP93">
-        <v>1.11</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -23013,7 +23013,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>8149554</v>
+        <v>8149557</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23028,190 +23028,190 @@
         <v>15</v>
       </c>
       <c r="G108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H108" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N108">
         <v>3</v>
       </c>
       <c r="O108" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="P108" t="s">
         <v>193</v>
       </c>
       <c r="Q108">
-        <v>4.5</v>
+        <v>2.96</v>
       </c>
       <c r="R108">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="S108">
-        <v>2.97</v>
+        <v>5.48</v>
       </c>
       <c r="T108">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="U108">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="V108">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="W108">
         <v>1.17</v>
       </c>
       <c r="X108">
-        <v>9.1</v>
+        <v>15</v>
       </c>
       <c r="Y108">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="Z108">
-        <v>3.73</v>
+        <v>2.1</v>
       </c>
       <c r="AA108">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="AB108">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="AC108">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AD108">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AE108">
         <v>1.7</v>
       </c>
       <c r="AF108">
-        <v>2.21</v>
+        <v>2.02</v>
       </c>
       <c r="AG108">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="AH108">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AI108">
-        <v>2.4</v>
+        <v>2.51</v>
       </c>
       <c r="AJ108">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AK108">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AL108">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AM108">
-        <v>1.2</v>
+        <v>1.59</v>
       </c>
       <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
+        <v>1.17</v>
+      </c>
+      <c r="AP108">
+        <v>0.88</v>
+      </c>
+      <c r="AQ108">
         <v>1.43</v>
       </c>
-      <c r="AO108">
-        <v>0.86</v>
-      </c>
-      <c r="AP108">
+      <c r="AR108">
+        <v>1.24</v>
+      </c>
+      <c r="AS108">
         <v>1.25</v>
       </c>
-      <c r="AQ108">
-        <v>1.13</v>
-      </c>
-      <c r="AR108">
-        <v>1.07</v>
-      </c>
-      <c r="AS108">
-        <v>1.11</v>
-      </c>
       <c r="AT108">
-        <v>2.18</v>
+        <v>2.49</v>
       </c>
       <c r="AU108">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV108">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW108">
+        <v>9</v>
+      </c>
+      <c r="AX108">
+        <v>10</v>
+      </c>
+      <c r="AY108">
+        <v>15</v>
+      </c>
+      <c r="AZ108">
+        <v>12</v>
+      </c>
+      <c r="BA108">
         <v>8</v>
-      </c>
-      <c r="AX108">
-        <v>6</v>
-      </c>
-      <c r="AY108">
-        <v>11</v>
-      </c>
-      <c r="AZ108">
-        <v>11</v>
-      </c>
-      <c r="BA108">
-        <v>5</v>
       </c>
       <c r="BB108">
         <v>3</v>
       </c>
       <c r="BC108">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD108">
-        <v>2.68</v>
+        <v>1.62</v>
       </c>
       <c r="BE108">
-        <v>6.87</v>
+        <v>7.24</v>
       </c>
       <c r="BF108">
-        <v>1.86</v>
+        <v>2.74</v>
       </c>
       <c r="BG108">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="BH108">
-        <v>2.4</v>
+        <v>2.78</v>
       </c>
       <c r="BI108">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="BJ108">
-        <v>1.84</v>
+        <v>2.17</v>
       </c>
       <c r="BK108">
-        <v>2.39</v>
+        <v>2.47</v>
       </c>
       <c r="BL108">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="BM108">
-        <v>3.3</v>
+        <v>2.76</v>
       </c>
       <c r="BN108">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="BO108">
-        <v>4.88</v>
+        <v>3.9</v>
       </c>
       <c r="BP108">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -23219,7 +23219,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>8149548</v>
+        <v>8149554</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23234,190 +23234,190 @@
         <v>15</v>
       </c>
       <c r="G109" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H109" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109">
         <v>1</v>
       </c>
       <c r="L109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O109" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="Q109">
-        <v>8.09</v>
+        <v>4.5</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="S109">
-        <v>2.27</v>
+        <v>2.97</v>
       </c>
       <c r="T109">
+        <v>1.67</v>
+      </c>
+      <c r="U109">
+        <v>2.07</v>
+      </c>
+      <c r="V109">
+        <v>4</v>
+      </c>
+      <c r="W109">
+        <v>1.17</v>
+      </c>
+      <c r="X109">
+        <v>9.1</v>
+      </c>
+      <c r="Y109">
+        <v>1.03</v>
+      </c>
+      <c r="Z109">
+        <v>3.73</v>
+      </c>
+      <c r="AA109">
+        <v>2.7</v>
+      </c>
+      <c r="AB109">
+        <v>2.3</v>
+      </c>
+      <c r="AC109">
+        <v>1.15</v>
+      </c>
+      <c r="AD109">
+        <v>4.9</v>
+      </c>
+      <c r="AE109">
+        <v>1.7</v>
+      </c>
+      <c r="AF109">
+        <v>2.21</v>
+      </c>
+      <c r="AG109">
+        <v>3.2</v>
+      </c>
+      <c r="AH109">
+        <v>1.31</v>
+      </c>
+      <c r="AI109">
+        <v>2.4</v>
+      </c>
+      <c r="AJ109">
+        <v>1.5</v>
+      </c>
+      <c r="AK109">
+        <v>1.35</v>
+      </c>
+      <c r="AL109">
+        <v>1.36</v>
+      </c>
+      <c r="AM109">
+        <v>1.2</v>
+      </c>
+      <c r="AN109">
+        <v>1.43</v>
+      </c>
+      <c r="AO109">
+        <v>0.86</v>
+      </c>
+      <c r="AP109">
+        <v>1.25</v>
+      </c>
+      <c r="AQ109">
+        <v>1.13</v>
+      </c>
+      <c r="AR109">
+        <v>1.07</v>
+      </c>
+      <c r="AS109">
+        <v>1.11</v>
+      </c>
+      <c r="AT109">
+        <v>2.18</v>
+      </c>
+      <c r="AU109">
+        <v>3</v>
+      </c>
+      <c r="AV109">
+        <v>5</v>
+      </c>
+      <c r="AW109">
+        <v>8</v>
+      </c>
+      <c r="AX109">
+        <v>6</v>
+      </c>
+      <c r="AY109">
+        <v>11</v>
+      </c>
+      <c r="AZ109">
+        <v>11</v>
+      </c>
+      <c r="BA109">
+        <v>5</v>
+      </c>
+      <c r="BB109">
+        <v>3</v>
+      </c>
+      <c r="BC109">
+        <v>8</v>
+      </c>
+      <c r="BD109">
+        <v>2.68</v>
+      </c>
+      <c r="BE109">
+        <v>6.87</v>
+      </c>
+      <c r="BF109">
+        <v>1.86</v>
+      </c>
+      <c r="BG109">
+        <v>1.48</v>
+      </c>
+      <c r="BH109">
+        <v>2.4</v>
+      </c>
+      <c r="BI109">
+        <v>1.86</v>
+      </c>
+      <c r="BJ109">
+        <v>1.84</v>
+      </c>
+      <c r="BK109">
+        <v>2.39</v>
+      </c>
+      <c r="BL109">
         <v>1.49</v>
       </c>
-      <c r="U109">
-        <v>2.36</v>
-      </c>
-      <c r="V109">
+      <c r="BM109">
         <v>3.3</v>
       </c>
-      <c r="W109">
-        <v>1.26</v>
-      </c>
-      <c r="X109">
-        <v>7.5</v>
-      </c>
-      <c r="Y109">
-        <v>1.05</v>
-      </c>
-      <c r="Z109">
-        <v>5.7</v>
-      </c>
-      <c r="AA109">
-        <v>3.3</v>
-      </c>
-      <c r="AB109">
-        <v>1.56</v>
-      </c>
-      <c r="AC109">
-        <v>1.09</v>
-      </c>
-      <c r="AD109">
-        <v>6.75</v>
-      </c>
-      <c r="AE109">
-        <v>1.43</v>
-      </c>
-      <c r="AF109">
-        <v>2.62</v>
-      </c>
-      <c r="AG109">
-        <v>2.35</v>
-      </c>
-      <c r="AH109">
-        <v>1.5</v>
-      </c>
-      <c r="AI109">
-        <v>2.54</v>
-      </c>
-      <c r="AJ109">
-        <v>1.45</v>
-      </c>
-      <c r="AK109">
-        <v>1.2</v>
-      </c>
-      <c r="AL109">
+      <c r="BN109">
         <v>1.25</v>
       </c>
-      <c r="AM109">
-        <v>1.02</v>
-      </c>
-      <c r="AN109">
-        <v>1.57</v>
-      </c>
-      <c r="AO109">
-        <v>1.5</v>
-      </c>
-      <c r="AP109">
-        <v>1.5</v>
-      </c>
-      <c r="AQ109">
-        <v>1.43</v>
-      </c>
-      <c r="AR109">
-        <v>1.3</v>
-      </c>
-      <c r="AS109">
-        <v>1.32</v>
-      </c>
-      <c r="AT109">
-        <v>2.62</v>
-      </c>
-      <c r="AU109">
-        <v>1</v>
-      </c>
-      <c r="AV109">
-        <v>2</v>
-      </c>
-      <c r="AW109">
-        <v>2</v>
-      </c>
-      <c r="AX109">
-        <v>11</v>
-      </c>
-      <c r="AY109">
-        <v>3</v>
-      </c>
-      <c r="AZ109">
-        <v>13</v>
-      </c>
-      <c r="BA109">
-        <v>0</v>
-      </c>
-      <c r="BB109">
-        <v>9</v>
-      </c>
-      <c r="BC109">
-        <v>9</v>
-      </c>
-      <c r="BD109">
-        <v>3.15</v>
-      </c>
-      <c r="BE109">
-        <v>7.8</v>
-      </c>
-      <c r="BF109">
-        <v>1.58</v>
-      </c>
-      <c r="BG109">
-        <v>1.51</v>
-      </c>
-      <c r="BH109">
-        <v>2.26</v>
-      </c>
-      <c r="BI109">
-        <v>1.93</v>
-      </c>
-      <c r="BJ109">
-        <v>1.68</v>
-      </c>
-      <c r="BK109">
-        <v>2.52</v>
-      </c>
-      <c r="BL109">
-        <v>1.41</v>
-      </c>
-      <c r="BM109">
-        <v>3.5</v>
-      </c>
-      <c r="BN109">
-        <v>1.22</v>
-      </c>
       <c r="BO109">
-        <v>4.8</v>
+        <v>4.88</v>
       </c>
       <c r="BP109">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23425,7 +23425,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>8149557</v>
+        <v>8149555</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23440,190 +23440,190 @@
         <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H110" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O110" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="Q110">
-        <v>2.96</v>
+        <v>3.85</v>
       </c>
       <c r="R110">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="S110">
-        <v>5.48</v>
+        <v>3.3</v>
       </c>
       <c r="T110">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="U110">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="V110">
-        <v>4.1</v>
+        <v>3.94</v>
       </c>
       <c r="W110">
         <v>1.17</v>
       </c>
       <c r="X110">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y110">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="Z110">
-        <v>2.1</v>
+        <v>2.98</v>
       </c>
       <c r="AA110">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="AB110">
+        <v>2.55</v>
+      </c>
+      <c r="AC110">
+        <v>1.14</v>
+      </c>
+      <c r="AD110">
+        <v>5.47</v>
+      </c>
+      <c r="AE110">
+        <v>1.57</v>
+      </c>
+      <c r="AF110">
+        <v>2.17</v>
+      </c>
+      <c r="AG110">
+        <v>3.09</v>
+      </c>
+      <c r="AH110">
+        <v>1.33</v>
+      </c>
+      <c r="AI110">
+        <v>2.28</v>
+      </c>
+      <c r="AJ110">
+        <v>1.55</v>
+      </c>
+      <c r="AK110">
+        <v>1.35</v>
+      </c>
+      <c r="AL110">
+        <v>1.36</v>
+      </c>
+      <c r="AM110">
+        <v>1.3</v>
+      </c>
+      <c r="AN110">
+        <v>1.6</v>
+      </c>
+      <c r="AO110">
+        <v>1.67</v>
+      </c>
+      <c r="AP110">
+        <v>1.33</v>
+      </c>
+      <c r="AQ110">
+        <v>1.86</v>
+      </c>
+      <c r="AR110">
+        <v>1.65</v>
+      </c>
+      <c r="AS110">
+        <v>1.33</v>
+      </c>
+      <c r="AT110">
+        <v>2.98</v>
+      </c>
+      <c r="AU110">
         <v>4</v>
       </c>
-      <c r="AC110">
-        <v>1.13</v>
-      </c>
-      <c r="AD110">
-        <v>4.6</v>
-      </c>
-      <c r="AE110">
-        <v>1.7</v>
-      </c>
-      <c r="AF110">
-        <v>2.02</v>
-      </c>
-      <c r="AG110">
-        <v>3.08</v>
-      </c>
-      <c r="AH110">
-        <v>1.3</v>
-      </c>
-      <c r="AI110">
-        <v>2.51</v>
-      </c>
-      <c r="AJ110">
-        <v>1.46</v>
-      </c>
-      <c r="AK110">
-        <v>1.37</v>
-      </c>
-      <c r="AL110">
-        <v>1.33</v>
-      </c>
-      <c r="AM110">
-        <v>1.59</v>
-      </c>
-      <c r="AN110">
-        <v>1</v>
-      </c>
-      <c r="AO110">
-        <v>1.17</v>
-      </c>
-      <c r="AP110">
-        <v>0.88</v>
-      </c>
-      <c r="AQ110">
+      <c r="AV110">
+        <v>2</v>
+      </c>
+      <c r="AW110">
+        <v>17</v>
+      </c>
+      <c r="AX110">
+        <v>6</v>
+      </c>
+      <c r="AY110">
+        <v>21</v>
+      </c>
+      <c r="AZ110">
+        <v>8</v>
+      </c>
+      <c r="BA110">
+        <v>7</v>
+      </c>
+      <c r="BB110">
+        <v>2</v>
+      </c>
+      <c r="BC110">
+        <v>9</v>
+      </c>
+      <c r="BD110">
+        <v>2.39</v>
+      </c>
+      <c r="BE110">
+        <v>6.75</v>
+      </c>
+      <c r="BF110">
+        <v>1.68</v>
+      </c>
+      <c r="BG110">
         <v>1.43</v>
       </c>
-      <c r="AR110">
-        <v>1.24</v>
-      </c>
-      <c r="AS110">
-        <v>1.25</v>
-      </c>
-      <c r="AT110">
-        <v>2.49</v>
-      </c>
-      <c r="AU110">
-        <v>6</v>
-      </c>
-      <c r="AV110">
-        <v>2</v>
-      </c>
-      <c r="AW110">
-        <v>9</v>
-      </c>
-      <c r="AX110">
-        <v>10</v>
-      </c>
-      <c r="AY110">
-        <v>15</v>
-      </c>
-      <c r="AZ110">
-        <v>12</v>
-      </c>
-      <c r="BA110">
-        <v>8</v>
-      </c>
-      <c r="BB110">
-        <v>3</v>
-      </c>
-      <c r="BC110">
-        <v>11</v>
-      </c>
-      <c r="BD110">
-        <v>1.62</v>
-      </c>
-      <c r="BE110">
-        <v>7.24</v>
-      </c>
-      <c r="BF110">
-        <v>2.74</v>
-      </c>
-      <c r="BG110">
-        <v>1.36</v>
-      </c>
       <c r="BH110">
-        <v>2.78</v>
+        <v>2.46</v>
       </c>
       <c r="BI110">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="BJ110">
-        <v>2.17</v>
+        <v>1.85</v>
       </c>
       <c r="BK110">
-        <v>2.47</v>
+        <v>2.29</v>
       </c>
       <c r="BL110">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="BM110">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="BN110">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="BO110">
-        <v>3.9</v>
+        <v>4.73</v>
       </c>
       <c r="BP110">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="111" spans="1:68">
@@ -23631,7 +23631,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>8149555</v>
+        <v>8149548</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
@@ -23646,190 +23646,190 @@
         <v>15</v>
       </c>
       <c r="G111" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H111" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111">
         <v>1</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111">
         <v>1</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O111" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P111" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q111">
-        <v>3.85</v>
+        <v>8.09</v>
       </c>
       <c r="R111">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="S111">
+        <v>2.27</v>
+      </c>
+      <c r="T111">
+        <v>1.49</v>
+      </c>
+      <c r="U111">
+        <v>2.36</v>
+      </c>
+      <c r="V111">
         <v>3.3</v>
       </c>
-      <c r="T111">
-        <v>1.63</v>
-      </c>
-      <c r="U111">
-        <v>2.13</v>
-      </c>
-      <c r="V111">
-        <v>3.94</v>
-      </c>
       <c r="W111">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="X111">
+        <v>7.5</v>
+      </c>
+      <c r="Y111">
+        <v>1.05</v>
+      </c>
+      <c r="Z111">
+        <v>5.7</v>
+      </c>
+      <c r="AA111">
+        <v>3.3</v>
+      </c>
+      <c r="AB111">
+        <v>1.56</v>
+      </c>
+      <c r="AC111">
+        <v>1.09</v>
+      </c>
+      <c r="AD111">
+        <v>6.75</v>
+      </c>
+      <c r="AE111">
+        <v>1.43</v>
+      </c>
+      <c r="AF111">
+        <v>2.62</v>
+      </c>
+      <c r="AG111">
+        <v>2.35</v>
+      </c>
+      <c r="AH111">
+        <v>1.5</v>
+      </c>
+      <c r="AI111">
+        <v>2.54</v>
+      </c>
+      <c r="AJ111">
+        <v>1.45</v>
+      </c>
+      <c r="AK111">
+        <v>1.2</v>
+      </c>
+      <c r="AL111">
+        <v>1.25</v>
+      </c>
+      <c r="AM111">
+        <v>1.02</v>
+      </c>
+      <c r="AN111">
+        <v>1.57</v>
+      </c>
+      <c r="AO111">
+        <v>1.5</v>
+      </c>
+      <c r="AP111">
+        <v>1.5</v>
+      </c>
+      <c r="AQ111">
+        <v>1.43</v>
+      </c>
+      <c r="AR111">
+        <v>1.3</v>
+      </c>
+      <c r="AS111">
+        <v>1.32</v>
+      </c>
+      <c r="AT111">
+        <v>2.62</v>
+      </c>
+      <c r="AU111">
+        <v>1</v>
+      </c>
+      <c r="AV111">
+        <v>2</v>
+      </c>
+      <c r="AW111">
+        <v>2</v>
+      </c>
+      <c r="AX111">
+        <v>11</v>
+      </c>
+      <c r="AY111">
+        <v>3</v>
+      </c>
+      <c r="AZ111">
         <v>13</v>
       </c>
-      <c r="Y111">
-        <v>1.03</v>
-      </c>
-      <c r="Z111">
-        <v>2.98</v>
-      </c>
-      <c r="AA111">
-        <v>2.7</v>
-      </c>
-      <c r="AB111">
-        <v>2.55</v>
-      </c>
-      <c r="AC111">
-        <v>1.14</v>
-      </c>
-      <c r="AD111">
-        <v>5.47</v>
-      </c>
-      <c r="AE111">
-        <v>1.57</v>
-      </c>
-      <c r="AF111">
-        <v>2.17</v>
-      </c>
-      <c r="AG111">
-        <v>3.09</v>
-      </c>
-      <c r="AH111">
-        <v>1.33</v>
-      </c>
-      <c r="AI111">
-        <v>2.28</v>
-      </c>
-      <c r="AJ111">
-        <v>1.55</v>
-      </c>
-      <c r="AK111">
-        <v>1.35</v>
-      </c>
-      <c r="AL111">
-        <v>1.36</v>
-      </c>
-      <c r="AM111">
-        <v>1.3</v>
-      </c>
-      <c r="AN111">
-        <v>1.6</v>
-      </c>
-      <c r="AO111">
-        <v>1.67</v>
-      </c>
-      <c r="AP111">
-        <v>1.33</v>
-      </c>
-      <c r="AQ111">
-        <v>1.86</v>
-      </c>
-      <c r="AR111">
-        <v>1.65</v>
-      </c>
-      <c r="AS111">
-        <v>1.33</v>
-      </c>
-      <c r="AT111">
-        <v>2.98</v>
-      </c>
-      <c r="AU111">
-        <v>4</v>
-      </c>
-      <c r="AV111">
-        <v>2</v>
-      </c>
-      <c r="AW111">
-        <v>17</v>
-      </c>
-      <c r="AX111">
-        <v>6</v>
-      </c>
-      <c r="AY111">
-        <v>21</v>
-      </c>
-      <c r="AZ111">
-        <v>8</v>
-      </c>
       <c r="BA111">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BB111">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BC111">
         <v>9</v>
       </c>
       <c r="BD111">
-        <v>2.39</v>
+        <v>3.15</v>
       </c>
       <c r="BE111">
-        <v>6.75</v>
+        <v>7.8</v>
       </c>
       <c r="BF111">
+        <v>1.58</v>
+      </c>
+      <c r="BG111">
+        <v>1.51</v>
+      </c>
+      <c r="BH111">
+        <v>2.26</v>
+      </c>
+      <c r="BI111">
+        <v>1.93</v>
+      </c>
+      <c r="BJ111">
         <v>1.68</v>
       </c>
-      <c r="BG111">
-        <v>1.43</v>
-      </c>
-      <c r="BH111">
-        <v>2.46</v>
-      </c>
-      <c r="BI111">
-        <v>1.83</v>
-      </c>
-      <c r="BJ111">
-        <v>1.85</v>
-      </c>
       <c r="BK111">
-        <v>2.29</v>
+        <v>2.52</v>
       </c>
       <c r="BL111">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="BM111">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="BN111">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="BO111">
-        <v>4.73</v>
+        <v>4.8</v>
       </c>
       <c r="BP111">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="112" spans="1:68">

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -20404,7 +20404,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>8149515</v>
+        <v>8149519</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -20424,197 +20424,197 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Siwelele</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>['61']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['3', '49']</t>
         </is>
       </c>
       <c r="Q92" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V92" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X92" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM92" t="n">
         <v>1.8</v>
       </c>
-      <c r="R92" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="S92" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="T92" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="U92" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="V92" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W92" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X92" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AL92" t="n">
+      <c r="AN92" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR92" t="n">
         <v>1.22</v>
       </c>
-      <c r="AM92" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AO92" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AP92" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AQ92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR92" t="n">
-        <v>1.89</v>
-      </c>
       <c r="AS92" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT92" t="n">
-        <v>3.14</v>
+        <v>2.4</v>
       </c>
       <c r="AU92" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV92" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW92" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AX92" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY92" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AZ92" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA92" t="n">
         <v>6</v>
       </c>
       <c r="BB92" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC92" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD92" t="n">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="BE92" t="n">
-        <v>8</v>
+        <v>7.55</v>
       </c>
       <c r="BF92" t="n">
-        <v>8.1</v>
+        <v>3.14</v>
       </c>
       <c r="BG92" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL92" t="n">
         <v>1.5</v>
       </c>
-      <c r="BH92" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BI92" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ92" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="BK92" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="BL92" t="n">
-        <v>1.47</v>
-      </c>
       <c r="BM92" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="BN92" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BO92" t="n">
-        <v>4.97</v>
+        <v>3.6</v>
       </c>
       <c r="BP92" t="n">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="93">
@@ -20840,7 +20840,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>8149519</v>
+        <v>8149515</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -20860,197 +20860,197 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Siwelele</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>['3', '49']</t>
-        </is>
-      </c>
       <c r="Q94" t="n">
-        <v>2.68</v>
+        <v>1.8</v>
       </c>
       <c r="R94" t="n">
-        <v>1.81</v>
+        <v>2.17</v>
       </c>
       <c r="S94" t="n">
-        <v>5.25</v>
+        <v>8.1</v>
       </c>
       <c r="T94" t="n">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="U94" t="n">
-        <v>2.17</v>
+        <v>2.83</v>
       </c>
       <c r="V94" t="n">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="W94" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X94" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS94" t="n">
         <v>1.25</v>
       </c>
-      <c r="X94" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AA94" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AB94" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AC94" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AG94" t="n">
+      <c r="AT94" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV94" t="n">
         <v>3</v>
       </c>
-      <c r="AH94" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AM94" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AO94" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AP94" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AQ94" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AR94" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AS94" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT94" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU94" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV94" t="n">
-        <v>6</v>
-      </c>
       <c r="AW94" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX94" t="n">
         <v>5</v>
       </c>
-      <c r="AX94" t="n">
-        <v>6</v>
-      </c>
       <c r="AY94" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ94" t="n">
         <v>8</v>
-      </c>
-      <c r="AZ94" t="n">
-        <v>12</v>
       </c>
       <c r="BA94" t="n">
         <v>6</v>
       </c>
       <c r="BB94" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC94" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD94" t="n">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="BE94" t="n">
-        <v>7.55</v>
+        <v>8</v>
       </c>
       <c r="BF94" t="n">
-        <v>3.14</v>
+        <v>8.1</v>
       </c>
       <c r="BG94" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="BH94" t="n">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="BI94" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BJ94" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="BK94" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="BL94" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="BM94" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="BN94" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BO94" t="n">
-        <v>3.6</v>
+        <v>4.97</v>
       </c>
       <c r="BP94" t="n">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="95">
@@ -23892,7 +23892,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>8149557</v>
+        <v>8149554</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -23912,197 +23912,197 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Orbit College</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Polokwane City</t>
+          <t>Durban City</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N108" t="n">
         <v>3</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>['59']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>['39', '45+1']</t>
+          <t>['44', '55', '90+3']</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>2.96</v>
+        <v>4.5</v>
       </c>
       <c r="R108" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="S108" t="n">
-        <v>5.48</v>
+        <v>2.97</v>
       </c>
       <c r="T108" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="U108" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="V108" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="W108" t="n">
         <v>1.17</v>
       </c>
       <c r="X108" t="n">
-        <v>15</v>
+        <v>9.1</v>
       </c>
       <c r="Y108" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="Z108" t="n">
-        <v>2.1</v>
+        <v>3.73</v>
       </c>
       <c r="AA108" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="AB108" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="AC108" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AD108" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AE108" t="n">
         <v>1.7</v>
       </c>
       <c r="AF108" t="n">
-        <v>2.02</v>
+        <v>2.21</v>
       </c>
       <c r="AG108" t="n">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="AH108" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AI108" t="n">
-        <v>2.51</v>
+        <v>2.4</v>
       </c>
       <c r="AJ108" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AK108" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AL108" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AM108" t="n">
-        <v>1.59</v>
+        <v>1.2</v>
       </c>
       <c r="AN108" t="n">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AO108" t="n">
-        <v>1.17</v>
+        <v>0.86</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="AR108" t="n">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.49</v>
+        <v>2.18</v>
       </c>
       <c r="AU108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX108" t="n">
         <v>6</v>
       </c>
-      <c r="AV108" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW108" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX108" t="n">
-        <v>10</v>
-      </c>
       <c r="AY108" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA108" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BB108" t="n">
         <v>3</v>
       </c>
       <c r="BC108" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD108" t="n">
-        <v>1.62</v>
+        <v>2.68</v>
       </c>
       <c r="BE108" t="n">
-        <v>7.24</v>
+        <v>6.87</v>
       </c>
       <c r="BF108" t="n">
-        <v>2.74</v>
+        <v>1.86</v>
       </c>
       <c r="BG108" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="BH108" t="n">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="BI108" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="BJ108" t="n">
-        <v>2.17</v>
+        <v>1.84</v>
       </c>
       <c r="BK108" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="BL108" t="n">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="BM108" t="n">
-        <v>2.76</v>
+        <v>3.3</v>
       </c>
       <c r="BN108" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="BO108" t="n">
-        <v>3.9</v>
+        <v>4.88</v>
       </c>
       <c r="BP108" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="109">
@@ -24110,7 +24110,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>8149554</v>
+        <v>8149548</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -24130,197 +24130,197 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Orbit College</t>
+          <t>Siwelele</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Durban City</t>
+          <t>Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
         <v>1</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>2</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2</v>
+      </c>
+      <c r="S109" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V109" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X109" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY109" t="n">
         <v>3</v>
       </c>
-      <c r="N109" t="n">
-        <v>3</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>['44', '55', '90+3']</t>
-        </is>
-      </c>
-      <c r="Q109" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="R109" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S109" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="T109" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U109" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="V109" t="n">
-        <v>4</v>
-      </c>
-      <c r="W109" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X109" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="Y109" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Z109" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="AA109" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AB109" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AC109" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AD109" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AF109" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AG109" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AH109" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AI109" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AJ109" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK109" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AL109" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AM109" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AN109" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AO109" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AP109" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AQ109" t="n">
+      <c r="AZ109" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP109" t="n">
         <v>1.13</v>
-      </c>
-      <c r="AR109" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AS109" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AT109" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AU109" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV109" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW109" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX109" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY109" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ109" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA109" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB109" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC109" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD109" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="BE109" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="BF109" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="BG109" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BH109" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BI109" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="BJ109" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="BK109" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="BL109" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="BM109" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BN109" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BO109" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="BP109" t="n">
-        <v>1.1</v>
       </c>
     </row>
     <row r="110">
@@ -24328,7 +24328,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>8149555</v>
+        <v>8149557</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -24348,197 +24348,197 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Magesi</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Sekhukhune United</t>
+          <t>Polokwane City</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['59']</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['39', '45+1']</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>3.85</v>
+        <v>2.96</v>
       </c>
       <c r="R110" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="S110" t="n">
-        <v>3.3</v>
+        <v>5.48</v>
       </c>
       <c r="T110" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="U110" t="n">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="V110" t="n">
-        <v>3.94</v>
+        <v>4.1</v>
       </c>
       <c r="W110" t="n">
         <v>1.17</v>
       </c>
       <c r="X110" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="Z110" t="n">
-        <v>2.98</v>
+        <v>2.1</v>
       </c>
       <c r="AA110" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="AB110" t="n">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="AC110" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AD110" t="n">
-        <v>5.47</v>
+        <v>4.6</v>
       </c>
       <c r="AE110" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AF110" t="n">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="AG110" t="n">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="AH110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL110" t="n">
         <v>1.33</v>
       </c>
-      <c r="AI110" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AJ110" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AK110" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AL110" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AM110" t="n">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="AN110" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO110" t="n">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AR110" t="n">
-        <v>1.65</v>
+        <v>1.24</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT110" t="n">
-        <v>2.98</v>
+        <v>2.49</v>
       </c>
       <c r="AU110" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV110" t="n">
         <v>2</v>
       </c>
       <c r="AW110" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AX110" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AY110" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ110" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA110" t="n">
         <v>8</v>
       </c>
-      <c r="BA110" t="n">
-        <v>7</v>
-      </c>
       <c r="BB110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC110" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD110" t="n">
-        <v>2.39</v>
+        <v>1.62</v>
       </c>
       <c r="BE110" t="n">
-        <v>6.75</v>
+        <v>7.24</v>
       </c>
       <c r="BF110" t="n">
-        <v>1.68</v>
+        <v>2.74</v>
       </c>
       <c r="BG110" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="BH110" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="BI110" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="BJ110" t="n">
-        <v>1.85</v>
+        <v>2.17</v>
       </c>
       <c r="BK110" t="n">
-        <v>2.29</v>
+        <v>2.47</v>
       </c>
       <c r="BL110" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="BM110" t="n">
-        <v>3.2</v>
+        <v>2.76</v>
       </c>
       <c r="BN110" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="BO110" t="n">
-        <v>4.73</v>
+        <v>3.9</v>
       </c>
       <c r="BP110" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="111">
@@ -24546,7 +24546,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>8149548</v>
+        <v>8149555</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -24566,197 +24566,197 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Siwelele</t>
+          <t>Magesi</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns</t>
+          <t>Sekhukhune United</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
         <v>1</v>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
       <c r="N111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>['74']</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>8.09</v>
+        <v>3.85</v>
       </c>
       <c r="R111" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="S111" t="n">
-        <v>2.27</v>
+        <v>3.3</v>
       </c>
       <c r="T111" t="n">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="U111" t="n">
-        <v>2.36</v>
+        <v>2.13</v>
       </c>
       <c r="V111" t="n">
-        <v>3.3</v>
+        <v>3.94</v>
       </c>
       <c r="W111" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="X111" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Y111" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Z111" t="n">
-        <v>5.7</v>
+        <v>2.98</v>
       </c>
       <c r="AA111" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AB111" t="n">
-        <v>1.56</v>
+        <v>2.55</v>
       </c>
       <c r="AC111" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AD111" t="n">
-        <v>6.75</v>
+        <v>5.47</v>
       </c>
       <c r="AE111" t="n">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AF111" t="n">
-        <v>2.62</v>
+        <v>2.17</v>
       </c>
       <c r="AG111" t="n">
-        <v>2.35</v>
+        <v>3.09</v>
       </c>
       <c r="AH111" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AI111" t="n">
-        <v>2.54</v>
+        <v>2.28</v>
       </c>
       <c r="AJ111" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AK111" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AL111" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AM111" t="n">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="AN111" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AO111" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AR111" t="n">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.62</v>
+        <v>2.98</v>
       </c>
       <c r="AU111" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV111" t="n">
         <v>2</v>
       </c>
       <c r="AW111" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB111" t="n">
         <v>2</v>
-      </c>
-      <c r="AX111" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY111" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ111" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA111" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB111" t="n">
-        <v>9</v>
       </c>
       <c r="BC111" t="n">
         <v>9</v>
       </c>
       <c r="BD111" t="n">
-        <v>3.15</v>
+        <v>2.39</v>
       </c>
       <c r="BE111" t="n">
-        <v>7.8</v>
+        <v>6.75</v>
       </c>
       <c r="BF111" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="BG111" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="BH111" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="BI111" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="BJ111" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="BK111" t="n">
-        <v>2.52</v>
+        <v>2.29</v>
       </c>
       <c r="BL111" t="n">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="BM111" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="BN111" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="BO111" t="n">
-        <v>4.8</v>
+        <v>4.73</v>
       </c>
       <c r="BP111" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="112">

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.13</v>
@@ -6587,7 +6587,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR28" t="n">
         <v>1.62</v>
@@ -9636,7 +9636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.38</v>
@@ -10293,7 +10293,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR45" t="n">
         <v>0.8100000000000001</v>
@@ -12034,7 +12034,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.13</v>
@@ -14435,7 +14435,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR64" t="n">
         <v>1.04</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.86</v>
@@ -16179,7 +16179,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR72" t="n">
         <v>1.61</v>
@@ -18138,7 +18138,7 @@
         <v>2</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ81" t="n">
         <v>2.17</v>
@@ -19885,7 +19885,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR89" t="n">
         <v>1.87</v>
@@ -20972,7 +20972,7 @@
         <v>1.17</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ94" t="n">
         <v>1</v>
@@ -24975,6 +24975,224 @@
       </c>
       <c r="BP112" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>8149540</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>46041.60416666666</v>
+      </c>
+      <c r="F113" t="n">
+        <v>14</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Mamelodi Sundowns</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Orbit College</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>2</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['22', '65']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U113" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X113" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.43</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.86</v>
@@ -5061,7 +5061,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR21" t="n">
         <v>1.22</v>
@@ -5933,7 +5933,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.13</v>
@@ -7674,7 +7674,7 @@
         <v>2</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.43</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.13</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.86</v>
@@ -10947,7 +10947,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR48" t="n">
         <v>1.14</v>
@@ -11165,7 +11165,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR49" t="n">
         <v>1.44</v>
@@ -11380,10 +11380,10 @@
         <v>0.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR50" t="n">
         <v>1.89</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.63</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.29</v>
@@ -15525,7 +15525,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR69" t="n">
         <v>0.8100000000000001</v>
@@ -15958,7 +15958,7 @@
         <v>0.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.13</v>
@@ -17269,7 +17269,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR77" t="n">
         <v>1.12</v>
@@ -17484,7 +17484,7 @@
         <v>0</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.57</v>
@@ -19013,7 +19013,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR85" t="n">
         <v>1.18</v>
@@ -19446,7 +19446,7 @@
         <v>0.83</v>
       </c>
       <c r="AP87" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.86</v>
@@ -19882,7 +19882,7 @@
         <v>0.6</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.43</v>
@@ -21629,7 +21629,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR97" t="n">
         <v>1.16</v>
@@ -22283,7 +22283,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR100" t="n">
         <v>1.13</v>
@@ -25193,6 +25193,442 @@
       </c>
       <c r="BP113" t="n">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>8149545</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>46042.60416666666</v>
+      </c>
+      <c r="F114" t="n">
+        <v>14</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Kaizer Chiefs</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Golden Arrows</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S114" t="n">
+        <v>8</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X114" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>8149543</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>46042.60416666666</v>
+      </c>
+      <c r="F115" t="n">
+        <v>14</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Sekhukhune United</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Stellenbosch</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V115" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X115" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.13</v>
@@ -5497,7 +5497,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR23" t="n">
         <v>1.29</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.57</v>
@@ -6805,7 +6805,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR29" t="n">
         <v>1.75</v>
@@ -12255,7 +12255,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR54" t="n">
         <v>1.15</v>
@@ -13127,7 +13127,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR58" t="n">
         <v>1.83</v>
@@ -14214,7 +14214,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.13</v>
@@ -15307,7 +15307,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR68" t="n">
         <v>1.48</v>
@@ -19010,7 +19010,7 @@
         <v>0.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.14</v>
@@ -19231,7 +19231,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR86" t="n">
         <v>1.16</v>
@@ -20757,7 +20757,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR93" t="n">
         <v>1.34</v>
@@ -21626,7 +21626,7 @@
         <v>0.2</v>
       </c>
       <c r="AP97" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.14</v>
@@ -24896,7 +24896,7 @@
         <v>2.5</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ112" t="n">
         <v>2.2</v>
@@ -25629,6 +25629,224 @@
       </c>
       <c r="BP115" t="n">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>8149550</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>46043.60416666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>TS Galaxy</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Marumo Gallants</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['57', '67']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S116" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V116" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X116" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP116"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.5600000000000001</v>
@@ -2663,7 +2663,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR26" t="n">
         <v>1.28</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.29</v>
@@ -10075,7 +10075,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR44" t="n">
         <v>1.56</v>
@@ -10508,7 +10508,7 @@
         <v>2</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
         <v>1</v>
@@ -11601,7 +11601,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR51" t="n">
         <v>1.58</v>
@@ -13778,7 +13778,7 @@
         <v>0.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.38</v>
@@ -16176,7 +16176,7 @@
         <v>0</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.43</v>
@@ -17487,7 +17487,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR78" t="n">
         <v>1.93</v>
@@ -20539,7 +20539,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR92" t="n">
         <v>1.22</v>
@@ -21193,7 +21193,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR95" t="n">
         <v>1.11</v>
@@ -21844,7 +21844,7 @@
         <v>0.83</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.13</v>
@@ -22498,7 +22498,7 @@
         <v>1</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.13</v>
@@ -25847,6 +25847,224 @@
       </c>
       <c r="BP116" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>8149560</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>46045.60416666666</v>
+      </c>
+      <c r="F117" t="n">
+        <v>16</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Richards Bay</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Siwelele</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="n">
+        <v>2</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S117" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V117" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X117" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.63</v>
@@ -3099,7 +3099,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.86</v>
@@ -6369,7 +6369,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR27" t="n">
         <v>1.66</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.13</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.13</v>
@@ -8982,7 +8982,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ39" t="n">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR41" t="n">
         <v>0.67</v>
@@ -11380,7 +11380,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.14</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.5600000000000001</v>
@@ -12473,7 +12473,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR55" t="n">
         <v>1.6</v>
@@ -12691,7 +12691,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR56" t="n">
         <v>1.61</v>
@@ -13560,7 +13560,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.43</v>
@@ -13996,10 +13996,10 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR62" t="n">
         <v>1.88</v>
@@ -16833,7 +16833,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR75" t="n">
         <v>1.06</v>
@@ -18141,7 +18141,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR81" t="n">
         <v>2.11</v>
@@ -18356,7 +18356,7 @@
         <v>0.2</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.38</v>
@@ -19446,7 +19446,7 @@
         <v>0.83</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.86</v>
@@ -20321,7 +20321,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ91" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR91" t="n">
         <v>1.22</v>
@@ -22065,7 +22065,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR99" t="n">
         <v>1.76</v>
@@ -22280,7 +22280,7 @@
         <v>0.4</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.14</v>
@@ -22719,7 +22719,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ102" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR102" t="n">
         <v>1.45</v>
@@ -23155,7 +23155,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR104" t="n">
         <v>1.3</v>
@@ -24024,7 +24024,7 @@
         <v>0.86</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.13</v>
@@ -25550,7 +25550,7 @@
         <v>0.83</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.14</v>
@@ -26007,13 +26007,13 @@
         <v>6</v>
       </c>
       <c r="AW117" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX117" t="n">
         <v>6</v>
       </c>
       <c r="AY117" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ117" t="n">
         <v>12</v>
@@ -26065,6 +26065,442 @@
       </c>
       <c r="BP117" t="n">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>8149563</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>46046.4375</v>
+      </c>
+      <c r="F118" t="n">
+        <v>16</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Orbit College</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Chippa United</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S118" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V118" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X118" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>8149561</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>46046.4375</v>
+      </c>
+      <c r="F119" t="n">
+        <v>16</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Sekhukhune United</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>5</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S119" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V119" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X119" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -26446,13 +26446,13 @@
         <v>5</v>
       </c>
       <c r="AX119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY119" t="n">
         <v>6</v>
       </c>
       <c r="AZ119" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA119" t="n">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -26237,13 +26237,13 @@
         <v>15</v>
       </c>
       <c r="BA118" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB118" t="n">
         <v>1</v>
       </c>
       <c r="BC118" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD118" t="n">
         <v>1.95</v>
@@ -26458,10 +26458,10 @@
         <v>1</v>
       </c>
       <c r="BB119" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC119" t="n">
         <v>12</v>
-      </c>
-      <c r="BC119" t="n">
-        <v>13</v>
       </c>
       <c r="BD119" t="n">
         <v>2.43</v>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -26237,13 +26237,13 @@
         <v>15</v>
       </c>
       <c r="BA118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC118" t="n">
         <v>5</v>
-      </c>
-      <c r="BB118" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC118" t="n">
-        <v>6</v>
       </c>
       <c r="BD118" t="n">
         <v>1.95</v>
@@ -26458,10 +26458,10 @@
         <v>1</v>
       </c>
       <c r="BB119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD119" t="n">
         <v>2.43</v>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -26222,16 +26222,16 @@
         <v>1</v>
       </c>
       <c r="AV118" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW118" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX118" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY118" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ118" t="n">
         <v>15</v>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.43</v>
@@ -3535,7 +3535,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.63</v>
@@ -4189,7 +4189,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR18" t="n">
         <v>1.87</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.14</v>
@@ -5279,7 +5279,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR22" t="n">
         <v>0.67</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.5600000000000001</v>
@@ -8985,7 +8985,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR39" t="n">
         <v>0.8</v>
@@ -9203,7 +9203,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR40" t="n">
         <v>0.68</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.63</v>
@@ -10511,7 +10511,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR46" t="n">
         <v>1.61</v>
@@ -11162,7 +11162,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.14</v>
@@ -13563,7 +13563,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -15086,7 +15086,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.38</v>
@@ -15743,7 +15743,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR70" t="n">
         <v>1.67</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.13</v>
@@ -16615,7 +16615,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR74" t="n">
         <v>1.58</v>
@@ -17051,7 +17051,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR76" t="n">
         <v>1.74</v>
@@ -17702,7 +17702,7 @@
         <v>3</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ79" t="n">
         <v>2.2</v>
@@ -20100,10 +20100,10 @@
         <v>0.8</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR90" t="n">
         <v>1.23</v>
@@ -20754,7 +20754,7 @@
         <v>0.71</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.5600000000000001</v>
@@ -20975,7 +20975,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR94" t="n">
         <v>1.89</v>
@@ -21190,7 +21190,7 @@
         <v>0.67</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.63</v>
@@ -22716,7 +22716,7 @@
         <v>2</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ102" t="n">
         <v>2</v>
@@ -22937,7 +22937,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR103" t="n">
         <v>1.57</v>
@@ -24463,7 +24463,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR110" t="n">
         <v>1.24</v>
@@ -26501,6 +26501,442 @@
       </c>
       <c r="BP119" t="n">
         <v>1.07</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>8149570</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>46047.4375</v>
+      </c>
+      <c r="F120" t="n">
+        <v>16</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>AmaZulu</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>TS Galaxy</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2</v>
+      </c>
+      <c r="N120" t="n">
+        <v>5</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['79', '89', '90+2']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['70', '81']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S120" t="n">
+        <v>4</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V120" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X120" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>8149572</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>46047.54166666666</v>
+      </c>
+      <c r="F121" t="n">
+        <v>16</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Durban City</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Polokwane City</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S121" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U121" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V121" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X121" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -26882,13 +26882,13 @@
         <v>9</v>
       </c>
       <c r="AX121" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY121" t="n">
         <v>13</v>
       </c>
       <c r="AZ121" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA121" t="n">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -26873,7 +26873,7 @@
         <v>2.63</v>
       </c>
       <c r="AU121" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV121" t="n">
         <v>0</v>
@@ -26885,7 +26885,7 @@
         <v>10</v>
       </c>
       <c r="AY121" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ121" t="n">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -26004,13 +26004,13 @@
         <v>3</v>
       </c>
       <c r="AV117" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW117" t="n">
         <v>7</v>
       </c>
       <c r="AX117" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY117" t="n">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.89</v>
@@ -5715,7 +5715,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR24" t="n">
         <v>2.08</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.13</v>
@@ -7677,7 +7677,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR33" t="n">
         <v>1.79</v>
@@ -8331,7 +8331,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR36" t="n">
         <v>1.42</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.13</v>
@@ -10729,7 +10729,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR47" t="n">
         <v>1</v>
@@ -11380,7 +11380,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.14</v>
@@ -12909,7 +12909,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR57" t="n">
         <v>1</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.63</v>
@@ -19446,7 +19446,7 @@
         <v>0.83</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.86</v>
@@ -24245,7 +24245,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR109" t="n">
         <v>1.3</v>
@@ -25550,7 +25550,7 @@
         <v>0.83</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.14</v>
@@ -26422,7 +26422,7 @@
         <v>2.17</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ119" t="n">
         <v>2</v>
@@ -26937,6 +26937,224 @@
       </c>
       <c r="BP121" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>8149486</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>46049.60416666666</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Sekhukhune United</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Mamelodi Sundowns</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>2</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['90+1', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S122" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V122" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X122" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -26443,13 +26443,13 @@
         <v>5</v>
       </c>
       <c r="AW119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX119" t="n">
         <v>12</v>
       </c>
       <c r="AY119" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ119" t="n">
         <v>17</v>
@@ -26658,7 +26658,7 @@
         <v>5</v>
       </c>
       <c r="AV120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW120" t="n">
         <v>2</v>
@@ -26670,7 +26670,7 @@
         <v>7</v>
       </c>
       <c r="AZ120" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA120" t="n">
         <v>5</v>
@@ -27082,13 +27082,13 @@
         <v>1.63</v>
       </c>
       <c r="AR122" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AS122" t="n">
         <v>1.38</v>
       </c>
       <c r="AT122" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="AU122" t="n">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP122"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ12" t="n">
         <v>2</v>
@@ -8767,7 +8767,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR38" t="n">
         <v>1.01</v>
@@ -9200,7 +9200,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.25</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.63</v>
@@ -16830,7 +16830,7 @@
         <v>0.25</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.63</v>
@@ -17705,7 +17705,7 @@
         <v>2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR79" t="n">
         <v>1.45</v>
@@ -21408,7 +21408,7 @@
         <v>1.8</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.86</v>
@@ -23370,7 +23370,7 @@
         <v>0.29</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.38</v>
@@ -23809,7 +23809,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ107" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR107" t="n">
         <v>0.97</v>
@@ -24899,7 +24899,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ112" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR112" t="n">
         <v>1.16</v>
@@ -27155,6 +27155,224 @@
       </c>
       <c r="BP122" t="n">
         <v>1.07</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>8149458</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>46050.60416666666</v>
+      </c>
+      <c r="F123" t="n">
+        <v>16</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Marumo Gallants</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Kaizer Chiefs</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S123" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V123" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X123" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.5600000000000001</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.63</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.86</v>
@@ -2009,7 +2009,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12" t="n">
         <v>2</v>
@@ -5061,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR21" t="n">
         <v>1.22</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.89</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.14</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.63</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR28" t="n">
         <v>1.62</v>
@@ -7020,10 +7020,10 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR30" t="n">
         <v>1.27</v>
@@ -7241,7 +7241,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR31" t="n">
         <v>0.66</v>
@@ -7459,7 +7459,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR32" t="n">
         <v>1.36</v>
@@ -8113,7 +8113,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR35" t="n">
         <v>1.66</v>
@@ -8549,7 +8549,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR37" t="n">
         <v>1.99</v>
@@ -9200,7 +9200,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.25</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ41" t="n">
         <v>2</v>
@@ -9639,7 +9639,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR42" t="n">
         <v>2.38</v>
@@ -10290,10 +10290,10 @@
         <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR45" t="n">
         <v>0.8100000000000001</v>
@@ -10508,7 +10508,7 @@
         <v>2</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.89</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.63</v>
@@ -10944,10 +10944,10 @@
         <v>0.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR48" t="n">
         <v>1.14</v>
@@ -11383,7 +11383,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR50" t="n">
         <v>1.89</v>
@@ -12037,7 +12037,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR53" t="n">
         <v>2.15</v>
@@ -12470,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.63</v>
@@ -13345,7 +13345,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR59" t="n">
         <v>1.15</v>
@@ -13778,10 +13778,10 @@
         <v>0.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR61" t="n">
         <v>1.61</v>
@@ -14217,7 +14217,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR63" t="n">
         <v>1.17</v>
@@ -14435,7 +14435,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR64" t="n">
         <v>1.04</v>
@@ -14650,7 +14650,7 @@
         <v>3</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.86</v>
@@ -15089,7 +15089,7 @@
         <v>2</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR67" t="n">
         <v>1.45</v>
@@ -15522,7 +15522,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.14</v>
@@ -15740,7 +15740,7 @@
         <v>1.75</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.89</v>
@@ -15961,7 +15961,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR71" t="n">
         <v>1.75</v>
@@ -16176,10 +16176,10 @@
         <v>0</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR72" t="n">
         <v>1.61</v>
@@ -16397,7 +16397,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR73" t="n">
         <v>1.35</v>
@@ -16830,7 +16830,7 @@
         <v>0.25</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.63</v>
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.25</v>
@@ -17269,7 +17269,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR77" t="n">
         <v>1.12</v>
@@ -18359,7 +18359,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR82" t="n">
         <v>1.15</v>
@@ -18574,7 +18574,7 @@
         <v>0.8</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.86</v>
@@ -18792,10 +18792,10 @@
         <v>0.6</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR84" t="n">
         <v>0.97</v>
@@ -19664,10 +19664,10 @@
         <v>0.17</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR88" t="n">
         <v>0.97</v>
@@ -19885,7 +19885,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR89" t="n">
         <v>1.87</v>
@@ -21408,7 +21408,7 @@
         <v>1.8</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.86</v>
@@ -21629,7 +21629,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR97" t="n">
         <v>1.16</v>
@@ -21844,10 +21844,10 @@
         <v>0.83</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR98" t="n">
         <v>1.69</v>
@@ -22062,7 +22062,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.63</v>
@@ -22498,10 +22498,10 @@
         <v>1</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR101" t="n">
         <v>1.57</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.89</v>
@@ -23370,10 +23370,10 @@
         <v>0.29</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR105" t="n">
         <v>1.32</v>
@@ -23591,7 +23591,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR106" t="n">
         <v>1.17</v>
@@ -23806,7 +23806,7 @@
         <v>3</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ107" t="n">
         <v>2.33</v>
@@ -24027,7 +24027,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR108" t="n">
         <v>1.07</v>
@@ -25117,7 +25117,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR113" t="n">
         <v>1.95</v>
@@ -25335,7 +25335,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR114" t="n">
         <v>1.9</v>
@@ -25986,7 +25986,7 @@
         <v>0.57</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.63</v>
@@ -27294,7 +27294,7 @@
         <v>2.2</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ123" t="n">
         <v>2.33</v>
@@ -27373,6 +27373,1096 @@
       </c>
       <c r="BP123" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>8149573</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>46052.60416666666</v>
+      </c>
+      <c r="F124" t="n">
+        <v>17</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Richards Bay</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Golden Arrows</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>2</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2</v>
+      </c>
+      <c r="N124" t="n">
+        <v>4</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['9', '65']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['27', '50']</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S124" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U124" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V124" t="n">
+        <v>4</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X124" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>8149577</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>46053.4375</v>
+      </c>
+      <c r="F125" t="n">
+        <v>17</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Marumo Gallants</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>AmaZulu</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S125" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V125" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X125" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>8149581</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>46053.4375</v>
+      </c>
+      <c r="F126" t="n">
+        <v>17</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Chippa United</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Durban City</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>2</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['33', '61']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S126" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V126" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X126" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>8171465</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>46053.54166666666</v>
+      </c>
+      <c r="F127" t="n">
+        <v>6</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Magesi</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2</v>
+      </c>
+      <c r="L127" t="n">
+        <v>2</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>2</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['9', '41']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S127" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V127" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X127" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>8149580</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>46053.54166666666</v>
+      </c>
+      <c r="F128" t="n">
+        <v>17</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Polokwane City</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Orbit College</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>2</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2</v>
+      </c>
+      <c r="N128" t="n">
+        <v>4</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['26', '43']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['51', '87']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S128" t="n">
+        <v>6</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U128" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V128" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X128" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -4843,7 +4843,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR20" t="n">
         <v>0.87</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.63</v>
@@ -9857,7 +9857,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR43" t="n">
         <v>1.73</v>
@@ -14214,7 +14214,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.33</v>
@@ -14653,7 +14653,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR65" t="n">
         <v>1.72</v>
@@ -17923,7 +17923,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR80" t="n">
         <v>1.33</v>
@@ -19010,7 +19010,7 @@
         <v>0.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.14</v>
@@ -21411,7 +21411,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR96" t="n">
         <v>1.32</v>
@@ -21626,7 +21626,7 @@
         <v>0.2</v>
       </c>
       <c r="AP97" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.25</v>
@@ -24681,7 +24681,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR111" t="n">
         <v>1.65</v>
@@ -24896,7 +24896,7 @@
         <v>2.5</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ112" t="n">
         <v>2.33</v>
@@ -25768,7 +25768,7 @@
         <v>0.63</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.5600000000000001</v>
@@ -27751,13 +27751,13 @@
         <v>5</v>
       </c>
       <c r="AW125" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX125" t="n">
         <v>6</v>
       </c>
       <c r="AY125" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ125" t="n">
         <v>11</v>
@@ -27972,13 +27972,13 @@
         <v>3</v>
       </c>
       <c r="AX126" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY126" t="n">
         <v>8</v>
       </c>
       <c r="AZ126" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA126" t="n">
         <v>1</v>
@@ -28463,6 +28463,224 @@
       </c>
       <c r="BP128" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>8149583</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>46054.4375</v>
+      </c>
+      <c r="F129" t="n">
+        <v>17</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>TS Galaxy</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Sekhukhune United</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S129" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V129" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X129" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BP129" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -28190,13 +28190,13 @@
         <v>14</v>
       </c>
       <c r="AX127" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY127" t="n">
         <v>20</v>
       </c>
       <c r="AZ127" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA127" t="n">
         <v>2</v>
@@ -28405,13 +28405,13 @@
         <v>4</v>
       </c>
       <c r="AW128" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX128" t="n">
         <v>1</v>
       </c>
       <c r="AY128" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ128" t="n">
         <v>5</v>
@@ -28617,13 +28617,13 @@
         <v>2.37</v>
       </c>
       <c r="AU129" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV129" t="n">
         <v>1</v>
       </c>
       <c r="AW129" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX129" t="n">
         <v>4</v>
@@ -28638,10 +28638,10 @@
         <v>9</v>
       </c>
       <c r="BB129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC129" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD129" t="n">
         <v>2.08</v>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.5</v>
@@ -3099,7 +3099,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.5600000000000001</v>
@@ -9421,7 +9421,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR41" t="n">
         <v>0.67</v>
@@ -11162,7 +11162,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.14</v>
@@ -12691,7 +12691,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR56" t="n">
         <v>1.61</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ73" t="n">
         <v>1</v>
@@ -18141,7 +18141,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR81" t="n">
         <v>2.11</v>
@@ -20100,7 +20100,7 @@
         <v>0.8</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.25</v>
@@ -20321,7 +20321,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ91" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR91" t="n">
         <v>1.22</v>
@@ -21190,7 +21190,7 @@
         <v>0.67</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.63</v>
@@ -22719,7 +22719,7 @@
         <v>2</v>
       </c>
       <c r="AQ102" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR102" t="n">
         <v>1.45</v>
@@ -26425,7 +26425,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR119" t="n">
         <v>1.83</v>
@@ -26640,7 +26640,7 @@
         <v>1</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.89</v>
@@ -27745,13 +27745,13 @@
         <v>2.34</v>
       </c>
       <c r="AU125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV125" t="n">
         <v>5</v>
       </c>
       <c r="AW125" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX125" t="n">
         <v>6</v>
@@ -28190,13 +28190,13 @@
         <v>14</v>
       </c>
       <c r="AX127" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY127" t="n">
         <v>20</v>
       </c>
       <c r="AZ127" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA127" t="n">
         <v>2</v>
@@ -28617,13 +28617,13 @@
         <v>2.37</v>
       </c>
       <c r="AU129" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV129" t="n">
         <v>1</v>
       </c>
       <c r="AW129" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX129" t="n">
         <v>4</v>
@@ -28681,6 +28681,224 @@
       </c>
       <c r="BP129" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>8149447</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>46056.60416666666</v>
+      </c>
+      <c r="F130" t="n">
+        <v>7</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>AmaZulu</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2</v>
+      </c>
+      <c r="N130" t="n">
+        <v>2</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['16', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>5</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S130" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V130" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X130" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.14</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.63</v>
@@ -4189,7 +4189,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR21" t="n">
         <v>1.22</v>
@@ -5279,7 +5279,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR22" t="n">
         <v>0.67</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.63</v>
@@ -8110,7 +8110,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.33</v>
@@ -8985,7 +8985,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR39" t="n">
         <v>0.8</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.63</v>
@@ -10511,7 +10511,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR46" t="n">
         <v>1.61</v>
@@ -10947,7 +10947,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR48" t="n">
         <v>1.14</v>
@@ -11383,7 +11383,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR50" t="n">
         <v>1.89</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.63</v>
@@ -15086,7 +15086,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.33</v>
@@ -15743,7 +15743,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR70" t="n">
         <v>1.67</v>
@@ -16612,10 +16612,10 @@
         <v>1.4</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR74" t="n">
         <v>1.58</v>
@@ -17269,7 +17269,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR77" t="n">
         <v>1.12</v>
@@ -17702,7 +17702,7 @@
         <v>3</v>
       </c>
       <c r="AP79" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ79" t="n">
         <v>2.33</v>
@@ -20754,7 +20754,7 @@
         <v>0.71</v>
       </c>
       <c r="AP93" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.5600000000000001</v>
@@ -20975,7 +20975,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR94" t="n">
         <v>1.89</v>
@@ -21629,7 +21629,7 @@
         <v>2</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR97" t="n">
         <v>1.16</v>
@@ -22716,7 +22716,7 @@
         <v>2</v>
       </c>
       <c r="AP102" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ102" t="n">
         <v>2.13</v>
@@ -22937,7 +22937,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR103" t="n">
         <v>1.57</v>
@@ -24678,7 +24678,7 @@
         <v>1.67</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ111" t="n">
         <v>2</v>
@@ -25335,7 +25335,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR114" t="n">
         <v>1.9</v>
@@ -26643,7 +26643,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR120" t="n">
         <v>1.11</v>
@@ -26858,7 +26858,7 @@
         <v>1.43</v>
       </c>
       <c r="AP121" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.25</v>
@@ -27515,7 +27515,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR124" t="n">
         <v>1.63</v>
@@ -28899,6 +28899,442 @@
       </c>
       <c r="BP130" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>8149586</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>46066.60416666666</v>
+      </c>
+      <c r="F131" t="n">
+        <v>18</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Durban City</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>TS Galaxy</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>2</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['66', '87']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R131" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S131" t="n">
+        <v>4</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V131" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X131" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>8149588</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>46066.60416666666</v>
+      </c>
+      <c r="F132" t="n">
+        <v>18</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Magesi</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Golden Arrows</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>2</v>
+      </c>
+      <c r="N132" t="n">
+        <v>2</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['47', '54']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R132" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S132" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V132" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X132" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -29059,13 +29059,13 @@
         <v>5</v>
       </c>
       <c r="AW131" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX131" t="n">
         <v>8</v>
       </c>
       <c r="AY131" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ131" t="n">
         <v>13</v>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP132"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.33</v>
@@ -1355,7 +1355,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.63</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
@@ -2663,7 +2663,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.8</v>
@@ -4625,7 +4625,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR19" t="n">
         <v>1.47</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.8</v>
@@ -5497,7 +5497,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR23" t="n">
         <v>1.29</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.14</v>
@@ -6151,7 +6151,7 @@
         <v>2</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR26" t="n">
         <v>1.28</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR28" t="n">
         <v>1.62</v>
@@ -6805,7 +6805,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR29" t="n">
         <v>1.75</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.33</v>
@@ -7895,7 +7895,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR34" t="n">
         <v>1.52</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ37" t="n">
         <v>1</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ41" t="n">
         <v>2.13</v>
@@ -10075,7 +10075,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR44" t="n">
         <v>1.56</v>
@@ -10290,10 +10290,10 @@
         <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR45" t="n">
         <v>0.8100000000000001</v>
@@ -10944,7 +10944,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.5600000000000001</v>
@@ -11380,7 +11380,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.5600000000000001</v>
@@ -11601,7 +11601,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR51" t="n">
         <v>1.58</v>
@@ -11819,7 +11819,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR52" t="n">
         <v>1.09</v>
@@ -12255,7 +12255,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR54" t="n">
         <v>1.15</v>
@@ -12470,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.63</v>
@@ -13127,7 +13127,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR58" t="n">
         <v>1.83</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.63</v>
@@ -14435,7 +14435,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR64" t="n">
         <v>1.04</v>
@@ -14650,7 +14650,7 @@
         <v>3</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ65" t="n">
         <v>2</v>
@@ -14871,7 +14871,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR66" t="n">
         <v>2.23</v>
@@ -15307,7 +15307,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR68" t="n">
         <v>1.48</v>
@@ -15522,7 +15522,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.14</v>
@@ -15740,7 +15740,7 @@
         <v>1.75</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.8</v>
@@ -16179,7 +16179,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR72" t="n">
         <v>1.61</v>
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.25</v>
@@ -17487,7 +17487,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR78" t="n">
         <v>1.93</v>
@@ -18574,10 +18574,10 @@
         <v>0.8</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR83" t="n">
         <v>1.52</v>
@@ -18792,7 +18792,7 @@
         <v>0.6</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.33</v>
@@ -19231,7 +19231,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR86" t="n">
         <v>1.16</v>
@@ -19446,10 +19446,10 @@
         <v>0.83</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR87" t="n">
         <v>1.89</v>
@@ -19664,7 +19664,7 @@
         <v>0.17</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.33</v>
@@ -19885,7 +19885,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR89" t="n">
         <v>1.87</v>
@@ -20539,7 +20539,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR92" t="n">
         <v>1.22</v>
@@ -20757,7 +20757,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR93" t="n">
         <v>1.34</v>
@@ -21193,7 +21193,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR95" t="n">
         <v>1.11</v>
@@ -22062,7 +22062,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.63</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.8</v>
@@ -23806,7 +23806,7 @@
         <v>3</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ107" t="n">
         <v>2.33</v>
@@ -25117,7 +25117,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR113" t="n">
         <v>1.95</v>
@@ -25550,7 +25550,7 @@
         <v>0.83</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.14</v>
@@ -25771,7 +25771,7 @@
         <v>2</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR116" t="n">
         <v>1.02</v>
@@ -25989,7 +25989,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR117" t="n">
         <v>1.68</v>
@@ -26422,7 +26422,7 @@
         <v>2.17</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ119" t="n">
         <v>2.13</v>
@@ -27076,7 +27076,7 @@
         <v>1.43</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.63</v>
@@ -27948,7 +27948,7 @@
         <v>1.13</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ126" t="n">
         <v>1</v>
@@ -28166,7 +28166,7 @@
         <v>0.38</v>
       </c>
       <c r="AP127" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.33</v>
@@ -28384,10 +28384,10 @@
         <v>0.43</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR128" t="n">
         <v>1.53</v>
@@ -29335,6 +29335,878 @@
       </c>
       <c r="BP132" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>8149596</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>46067.4375</v>
+      </c>
+      <c r="F133" t="n">
+        <v>18</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Marumo Gallants</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>2</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2</v>
+      </c>
+      <c r="L133" t="n">
+        <v>3</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>3</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['4', '29', '85']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S133" t="n">
+        <v>9</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X133" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>8149591</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>46067.54166666666</v>
+      </c>
+      <c r="F134" t="n">
+        <v>18</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Polokwane City</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Siwelele</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R134" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S134" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U134" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V134" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X134" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BP134" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>8149594</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>46067.63541666666</v>
+      </c>
+      <c r="F135" t="n">
+        <v>18</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Chippa United</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Richards Bay</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>3</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>3</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['45+3', '67', '79']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="R135" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S135" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V135" t="n">
+        <v>4</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X135" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>8149598</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>46068.4375</v>
+      </c>
+      <c r="F136" t="n">
+        <v>18</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Sekhukhune United</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Orbit College</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>2</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>2</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['2', '74']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S136" t="n">
+        <v>6</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V136" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X136" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -29277,16 +29277,16 @@
         <v>4</v>
       </c>
       <c r="AW132" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX132" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY132" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ132" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA132" t="n">
         <v>3</v>
@@ -30146,7 +30146,7 @@
         <v>5</v>
       </c>
       <c r="AV136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW136" t="n">
         <v>5</v>
@@ -30158,7 +30158,7 @@
         <v>10</v>
       </c>
       <c r="AZ136" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA136" t="n">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -29495,13 +29495,13 @@
         <v>1</v>
       </c>
       <c r="AW133" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX133" t="n">
         <v>3</v>
       </c>
       <c r="AY133" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ133" t="n">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ9" t="n">
         <v>2.33</v>
@@ -5715,7 +5715,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR24" t="n">
         <v>2.08</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.14</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.44</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.5</v>
@@ -7241,7 +7241,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR31" t="n">
         <v>0.66</v>
@@ -7677,7 +7677,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR33" t="n">
         <v>1.79</v>
@@ -8328,10 +8328,10 @@
         <v>1.67</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR36" t="n">
         <v>1.42</v>
@@ -9639,7 +9639,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR42" t="n">
         <v>2.38</v>
@@ -10729,7 +10729,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR47" t="n">
         <v>1</v>
@@ -11816,7 +11816,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.75</v>
@@ -12909,7 +12909,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR57" t="n">
         <v>1</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ59" t="n">
         <v>1</v>
@@ -13781,7 +13781,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR61" t="n">
         <v>1.61</v>
@@ -15089,7 +15089,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR67" t="n">
         <v>1.45</v>
@@ -15740,7 +15740,7 @@
         <v>1.75</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.8</v>
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.25</v>
@@ -17266,7 +17266,7 @@
         <v>0.25</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.5600000000000001</v>
@@ -18359,7 +18359,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR82" t="n">
         <v>1.15</v>
@@ -19667,7 +19667,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR88" t="n">
         <v>0.97</v>
@@ -20536,7 +20536,7 @@
         <v>0.2</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.67</v>
@@ -22062,7 +22062,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.63</v>
@@ -23373,7 +23373,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR105" t="n">
         <v>1.32</v>
@@ -24245,7 +24245,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR109" t="n">
         <v>1.3</v>
@@ -24460,7 +24460,7 @@
         <v>1.17</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.25</v>
@@ -27079,7 +27079,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR122" t="n">
         <v>1.69</v>
@@ -28166,10 +28166,10 @@
         <v>0.38</v>
       </c>
       <c r="AP127" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR127" t="n">
         <v>1.94</v>
@@ -29474,7 +29474,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.5</v>
@@ -30149,13 +30149,13 @@
         <v>1</v>
       </c>
       <c r="AW136" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX136" t="n">
         <v>9</v>
       </c>
       <c r="AY136" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ136" t="n">
         <v>10</v>
@@ -30207,6 +30207,442 @@
       </c>
       <c r="BP136" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>8149578</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>46071.60416666666</v>
+      </c>
+      <c r="F137" t="n">
+        <v>17</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Mamelodi Sundowns</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2</v>
+      </c>
+      <c r="N137" t="n">
+        <v>3</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['37', '41']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S137" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V137" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X137" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>8149575</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>46071.60416666666</v>
+      </c>
+      <c r="F138" t="n">
+        <v>17</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Stellenbosch</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Magesi</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S138" t="n">
+        <v>5</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X138" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.44</v>
@@ -1573,7 +1573,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.25</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.75</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.5</v>
@@ -5715,7 +5715,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR24" t="n">
         <v>2.08</v>
@@ -5933,7 +5933,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -7674,10 +7674,10 @@
         <v>2</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR33" t="n">
         <v>1.79</v>
@@ -8331,7 +8331,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR36" t="n">
         <v>1.42</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ43" t="n">
         <v>2</v>
@@ -10729,7 +10729,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR47" t="n">
         <v>1</v>
@@ -11162,10 +11162,10 @@
         <v>0.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR49" t="n">
         <v>1.44</v>
@@ -12909,7 +12909,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR57" t="n">
         <v>1</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.5</v>
@@ -15525,7 +15525,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR69" t="n">
         <v>0.8100000000000001</v>
@@ -15958,7 +15958,7 @@
         <v>0.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.33</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ73" t="n">
         <v>1</v>
@@ -17484,7 +17484,7 @@
         <v>0</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.67</v>
@@ -19013,7 +19013,7 @@
         <v>2</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR85" t="n">
         <v>1.18</v>
@@ -19882,7 +19882,7 @@
         <v>0.6</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.44</v>
@@ -20100,7 +20100,7 @@
         <v>0.8</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.25</v>
@@ -21190,7 +21190,7 @@
         <v>0.67</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.67</v>
@@ -22283,7 +22283,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR100" t="n">
         <v>1.13</v>
@@ -24245,7 +24245,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR109" t="n">
         <v>1.3</v>
@@ -25332,7 +25332,7 @@
         <v>0.17</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.5600000000000001</v>
@@ -25553,7 +25553,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR115" t="n">
         <v>1.9</v>
@@ -26640,7 +26640,7 @@
         <v>1</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.8</v>
@@ -27079,7 +27079,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR122" t="n">
         <v>1.69</v>
@@ -28820,7 +28820,7 @@
         <v>2</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ130" t="n">
         <v>2.13</v>
@@ -30349,7 +30349,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR137" t="n">
         <v>2.06</v>
@@ -30642,6 +30642,442 @@
         <v>4.24</v>
       </c>
       <c r="BP138" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>8149593</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>46077.60416666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>18</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Kaizer Chiefs</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Stellenbosch</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="n">
+        <v>2</v>
+      </c>
+      <c r="N139" t="n">
+        <v>3</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['51', '87']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S139" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V139" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X139" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>8149590</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>46077.60416666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>18</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>AmaZulu</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Mamelodi Sundowns</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>6</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2</v>
+      </c>
+      <c r="S140" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X140" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP140" t="n">
         <v>1.14</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -30803,13 +30803,13 @@
         <v>3</v>
       </c>
       <c r="AW139" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX139" t="n">
         <v>5</v>
       </c>
       <c r="AY139" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ139" t="n">
         <v>8</v>
@@ -31021,13 +31021,13 @@
         <v>6</v>
       </c>
       <c r="AW140" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX140" t="n">
         <v>23</v>
       </c>
       <c r="AY140" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ140" t="n">
         <v>29</v>
@@ -31036,10 +31036,10 @@
         <v>2</v>
       </c>
       <c r="BB140" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC140" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD140" t="n">
         <v>4.64</v>

--- a/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/South Africa Premier Soccer League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.5600000000000001</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ9" t="n">
         <v>2.33</v>
@@ -2881,7 +2881,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.38</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.75</v>
@@ -4189,7 +4189,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR18" t="n">
         <v>1.87</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.75</v>
@@ -5279,7 +5279,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR22" t="n">
         <v>0.67</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.9</v>
@@ -6369,7 +6369,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR27" t="n">
         <v>1.66</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.5</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.4</v>
@@ -7459,7 +7459,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR32" t="n">
         <v>1.36</v>
@@ -7674,7 +7674,7 @@
         <v>2</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.9</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.75</v>
@@ -8110,10 +8110,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR35" t="n">
         <v>1.66</v>
@@ -8328,7 +8328,7 @@
         <v>1.67</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.9</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ38" t="n">
         <v>2.33</v>
@@ -8985,7 +8985,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR39" t="n">
         <v>0.8</v>
@@ -9203,7 +9203,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR40" t="n">
         <v>0.68</v>
@@ -9421,7 +9421,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR41" t="n">
         <v>0.67</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ43" t="n">
         <v>2</v>
@@ -10511,7 +10511,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR46" t="n">
         <v>1.61</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.67</v>
@@ -11816,7 +11816,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.75</v>
@@ -12473,7 +12473,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR55" t="n">
         <v>1.6</v>
@@ -12688,10 +12688,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR56" t="n">
         <v>1.61</v>
@@ -12906,7 +12906,7 @@
         <v>1.8</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.9</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.5</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ59" t="n">
         <v>1</v>
@@ -13563,7 +13563,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -13999,7 +13999,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR62" t="n">
         <v>1.88</v>
@@ -14217,7 +14217,7 @@
         <v>2</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR63" t="n">
         <v>1.17</v>
@@ -14432,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.44</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.5</v>
@@ -15743,7 +15743,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR70" t="n">
         <v>1.67</v>
@@ -15958,10 +15958,10 @@
         <v>0.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR71" t="n">
         <v>1.75</v>
@@ -16612,10 +16612,10 @@
         <v>1.4</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR74" t="n">
         <v>1.58</v>
@@ -16833,7 +16833,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR75" t="n">
         <v>1.06</v>
@@ -17051,7 +17051,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR76" t="n">
         <v>1.74</v>
@@ -17266,7 +17266,7 @@
         <v>0.25</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.5600000000000001</v>
@@ -17484,7 +17484,7 @@
         <v>0</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.67</v>
@@ -17920,7 +17920,7 @@
         <v>2.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ80" t="n">
         <v>2</v>
@@ -18141,7 +18141,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR81" t="n">
         <v>2.11</v>
@@ -18795,7 +18795,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR84" t="n">
         <v>0.97</v>
@@ -19228,7 +19228,7 @@
         <v>0.83</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.5</v>
@@ -19882,7 +19882,7 @@
         <v>0.6</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.44</v>
@@ -20103,7 +20103,7 @@
         <v>2</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR90" t="n">
         <v>1.23</v>
@@ -20318,10 +20318,10 @@
         <v>1.75</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ91" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR91" t="n">
         <v>1.22</v>
@@ -20536,7 +20536,7 @@
         <v>0.2</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.67</v>
@@ -20975,7 +20975,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR94" t="n">
         <v>1.89</v>
@@ -22065,7 +22065,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR99" t="n">
         <v>1.76</v>
@@ -22501,7 +22501,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR101" t="n">
         <v>1.57</v>
@@ -22719,7 +22719,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ102" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR102" t="n">
         <v>1.45</v>
@@ -22937,7 +22937,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR103" t="n">
         <v>1.57</v>
@@ -23152,10 +23152,10 @@
         <v>0.17</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR104" t="n">
         <v>1.3</v>
@@ -23588,10 +23588,10 @@
         <v>0.86</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR106" t="n">
         <v>1.17</v>
@@ -24242,7 +24242,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.9</v>
@@ -24460,10 +24460,10 @@
         <v>1.17</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR110" t="n">
         <v>1.24</v>
@@ -24678,7 +24678,7 @@
         <v>1.67</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ111" t="n">
         <v>2</v>
@@ -25332,7 +25332,7 @@
         <v>0.17</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.5600000000000001</v>
@@ -26207,7 +26207,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR118" t="n">
         <v>1.11</v>
@@ -26425,7 +26425,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR119" t="n">
         <v>1.83</v>
@@ -26643,7 +26643,7 @@
         <v>2</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR120" t="n">
         <v>1.11</v>
@@ -26861,7 +26861,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR121" t="n">
         <v>1.39</v>
@@ -27733,7 +27733,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR125" t="n">
         <v>1.37</v>
@@ -28823,7 +28823,7 @@
         <v>2</v>
       </c>
       <c r="AQ130" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR130" t="n">
         <v>1.11</v>
@@ -29041,7 +29041,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR131" t="n">
         <v>1.42</v>
@@ -29256,7 +29256,7 @@
         <v>0.25</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.5600000000000001</v>
@@ -30564,7 +30564,7 @@
         <v>0.33</v>
       </c>
       <c r="AP138" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.4</v>
@@ -30782,7 +30782,7 @@
         <v>1.14</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.38</v>
@@ -31078,6 +31078,1096 @@
         <v>3.4</v>
       </c>
       <c r="BP140" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>8149601</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>46080.60416666666</v>
+      </c>
+      <c r="F141" t="n">
+        <v>19</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Stellenbosch</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>AmaZulu</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R141" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S141" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X141" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>8149599</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>46080.60416666666</v>
+      </c>
+      <c r="F142" t="n">
+        <v>19</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Magesi</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Polokwane City</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2</v>
+      </c>
+      <c r="N142" t="n">
+        <v>2</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['24', '73']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R142" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S142" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U142" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V142" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X142" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>8149603</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>46081.4375</v>
+      </c>
+      <c r="F143" t="n">
+        <v>19</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Kaizer Chiefs</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2</v>
+      </c>
+      <c r="K143" t="n">
+        <v>2</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>3</v>
+      </c>
+      <c r="N143" t="n">
+        <v>3</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['5', '39', '78']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R143" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S143" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U143" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X143" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>8149606</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>46081.54166666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>19</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Golden Arrows</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Chippa United</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S144" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V144" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X144" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>8149604</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>South Africa Premier Soccer League</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>46081.54166666666</v>
+      </c>
+      <c r="F145" t="n">
+        <v>19</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Siwelele</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>TS Galaxy</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>3</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S145" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V145" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X145" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="BP145" t="n">
         <v>1.14</v>
       </c>
     </row>
